--- a/PH_Summary.xlsx
+++ b/PH_Summary.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miraliu/Desktop/PostDocCode/Swathi_4Dflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312AB1FB-2B78-6441-9FF0-C9FA1B30772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A7F03F-F43C-204F-973B-E62072F5ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="500" windowWidth="34200" windowHeight="20460" xr2:uid="{C905BE8C-2896-C543-8AFF-EB2ACCDFAC71}"/>
+    <workbookView xWindow="12580" yWindow="500" windowWidth="34200" windowHeight="20460" activeTab="1" xr2:uid="{C905BE8C-2896-C543-8AFF-EB2ACCDFAC71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2-old" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2-old" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="97">
   <si>
     <t>Patient ID</t>
   </si>
@@ -326,6 +327,9 @@
   </si>
   <si>
     <t>Binary Fibrosis</t>
+  </si>
+  <si>
+    <t>Decompensation</t>
   </si>
 </sst>
 </file>
@@ -759,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26E0184-5CD0-154B-A1F4-DB91C69E117F}">
   <dimension ref="A1:AY35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6196,10 +6200,5555 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6708145-1675-EC41-90AB-D4FCFB10980E}">
+  <dimension ref="A1:AZ35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AX36" sqref="AX36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>19.174885710000002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>24.343371430000001</v>
+      </c>
+      <c r="E2">
+        <v>12.391928569999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>6.24</v>
+      </c>
+      <c r="K2">
+        <v>13.01811429</v>
+      </c>
+      <c r="L2">
+        <v>18.36008571</v>
+      </c>
+      <c r="M2">
+        <v>117.70058571</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>63.657685710000003</v>
+      </c>
+      <c r="P2">
+        <v>42.87998571</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2">
+        <v>13.829185710000001</v>
+      </c>
+      <c r="V2">
+        <v>25.000800000000002</v>
+      </c>
+      <c r="W2">
+        <v>44.646900000000002</v>
+      </c>
+      <c r="X2">
+        <v>49.16237143</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2">
+        <v>10.05287143</v>
+      </c>
+      <c r="AA2">
+        <v>5.0368285699999999</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2">
+        <v>2.3157857100000001</v>
+      </c>
+      <c r="AG2">
+        <v>8.0060142899999995</v>
+      </c>
+      <c r="AH2">
+        <v>29.211685710000001</v>
+      </c>
+      <c r="AI2">
+        <v>276.77769999999998</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2">
+        <v>41.173400000000001</v>
+      </c>
+      <c r="AL2">
+        <v>40.5976</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2">
+        <v>37.1038</v>
+      </c>
+      <c r="AR2">
+        <v>61.609299999999998</v>
+      </c>
+      <c r="AS2">
+        <v>159.08789999999999</v>
+      </c>
+      <c r="AT2">
+        <v>10</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>3</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>18.959014289999999</v>
+      </c>
+      <c r="C3">
+        <v>21.129471429999999</v>
+      </c>
+      <c r="D3">
+        <v>9.7620428599999993</v>
+      </c>
+      <c r="E3">
+        <v>19.78088571</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3">
+        <v>37.598914290000003</v>
+      </c>
+      <c r="M3">
+        <v>73.061785709999995</v>
+      </c>
+      <c r="N3">
+        <v>69.450557140000001</v>
+      </c>
+      <c r="O3">
+        <v>27.00857143</v>
+      </c>
+      <c r="P3">
+        <v>47.631771430000001</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3">
+        <v>75.201214289999996</v>
+      </c>
+      <c r="X3">
+        <v>63.961285709999999</v>
+      </c>
+      <c r="Y3">
+        <v>12.947100000000001</v>
+      </c>
+      <c r="Z3">
+        <v>4.5986571400000003</v>
+      </c>
+      <c r="AA3">
+        <v>7.9934571400000003</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3">
+        <v>48.226542860000002</v>
+      </c>
+      <c r="AI3">
+        <v>358.07749999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>61.244900000000001</v>
+      </c>
+      <c r="AK3">
+        <v>46.6708</v>
+      </c>
+      <c r="AL3">
+        <v>40.535699999999999</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3">
+        <v>127.967</v>
+      </c>
+      <c r="AT3">
+        <v>15</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>4</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>17.598214290000001</v>
+      </c>
+      <c r="C4">
+        <v>12.20657143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>8.1971571399999998</v>
+      </c>
+      <c r="F4">
+        <v>9.2363571400000009</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>4.2095571400000003</v>
+      </c>
+      <c r="K4">
+        <v>5.7075428600000002</v>
+      </c>
+      <c r="L4">
+        <v>17.370342860000001</v>
+      </c>
+      <c r="M4">
+        <v>66.454499999999996</v>
+      </c>
+      <c r="N4">
+        <v>64.247571429999994</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4">
+        <v>31.305171430000001</v>
+      </c>
+      <c r="Q4">
+        <v>17.16415714</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4">
+        <v>10.77008571</v>
+      </c>
+      <c r="V4">
+        <v>15.94298571</v>
+      </c>
+      <c r="W4">
+        <v>67.647642860000005</v>
+      </c>
+      <c r="X4">
+        <v>65.28064286</v>
+      </c>
+      <c r="Y4">
+        <v>12.252257139999999</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4">
+        <v>8.8541142900000001</v>
+      </c>
+      <c r="AB4">
+        <v>15.50108571</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4">
+        <v>3.3932571399999998</v>
+      </c>
+      <c r="AG4">
+        <v>16.524942859999999</v>
+      </c>
+      <c r="AH4">
+        <v>47.396314289999999</v>
+      </c>
+      <c r="AI4">
+        <v>370.9513</v>
+      </c>
+      <c r="AJ4">
+        <v>100.3745</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL4">
+        <v>108.0151</v>
+      </c>
+      <c r="AM4">
+        <v>167.8272</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ4">
+        <v>80.608999999999995</v>
+      </c>
+      <c r="AR4">
+        <v>289.52949999999998</v>
+      </c>
+      <c r="AS4">
+        <v>272.85759999999999</v>
+      </c>
+      <c r="AT4">
+        <v>18</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>4</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10.776899999999999</v>
+      </c>
+      <c r="C5">
+        <v>19.27482857</v>
+      </c>
+      <c r="D5">
+        <v>8.8404000000000007</v>
+      </c>
+      <c r="E5">
+        <v>10.44758571</v>
+      </c>
+      <c r="F5">
+        <v>8.4443142899999994</v>
+      </c>
+      <c r="G5">
+        <v>6.2783571399999998</v>
+      </c>
+      <c r="H5">
+        <v>5.6162142900000003</v>
+      </c>
+      <c r="I5">
+        <v>11.130599999999999</v>
+      </c>
+      <c r="J5">
+        <v>6.0081857100000002</v>
+      </c>
+      <c r="K5">
+        <v>6.6763714299999997</v>
+      </c>
+      <c r="L5">
+        <v>19.0716</v>
+      </c>
+      <c r="M5">
+        <v>54.379928569999997</v>
+      </c>
+      <c r="N5">
+        <v>42.46011429</v>
+      </c>
+      <c r="O5">
+        <v>21.531385709999999</v>
+      </c>
+      <c r="P5">
+        <v>29.946814289999999</v>
+      </c>
+      <c r="Q5">
+        <v>14.45935714</v>
+      </c>
+      <c r="R5">
+        <v>10.730185710000001</v>
+      </c>
+      <c r="S5">
+        <v>11.0151</v>
+      </c>
+      <c r="T5">
+        <v>21.678128569999998</v>
+      </c>
+      <c r="U5">
+        <v>12.698228569999999</v>
+      </c>
+      <c r="V5">
+        <v>16.43918571</v>
+      </c>
+      <c r="W5">
+        <v>42.268971430000001</v>
+      </c>
+      <c r="X5">
+        <v>43.255328570000003</v>
+      </c>
+      <c r="Y5">
+        <v>6.1317428600000001</v>
+      </c>
+      <c r="Z5">
+        <v>3.09685714</v>
+      </c>
+      <c r="AA5">
+        <v>3.7970142899999999</v>
+      </c>
+      <c r="AB5">
+        <v>9.3941999999999997</v>
+      </c>
+      <c r="AC5">
+        <v>3.4991571399999999</v>
+      </c>
+      <c r="AD5">
+        <v>2.5228714299999999</v>
+      </c>
+      <c r="AE5">
+        <v>4.1711999999999998</v>
+      </c>
+      <c r="AF5">
+        <v>5.7706285700000004</v>
+      </c>
+      <c r="AG5">
+        <v>13.42045714</v>
+      </c>
+      <c r="AH5">
+        <v>38.202428570000002</v>
+      </c>
+      <c r="AI5">
+        <v>401.37279999999998</v>
+      </c>
+      <c r="AJ5">
+        <v>31.8123</v>
+      </c>
+      <c r="AK5">
+        <v>35.030999999999999</v>
+      </c>
+      <c r="AL5">
+        <v>36.343499999999999</v>
+      </c>
+      <c r="AM5">
+        <v>111.2492</v>
+      </c>
+      <c r="AN5">
+        <v>55.734000000000002</v>
+      </c>
+      <c r="AO5">
+        <v>44.921599999999998</v>
+      </c>
+      <c r="AP5">
+        <v>37.509099999999997</v>
+      </c>
+      <c r="AQ5">
+        <v>96.046199999999999</v>
+      </c>
+      <c r="AR5">
+        <v>201.01410000000001</v>
+      </c>
+      <c r="AS5">
+        <v>200.3109</v>
+      </c>
+      <c r="AT5">
+        <v>10</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>19.4802</v>
+      </c>
+      <c r="C6">
+        <v>12.373028570000001</v>
+      </c>
+      <c r="D6">
+        <v>15.623828570000001</v>
+      </c>
+      <c r="E6">
+        <v>2.1924857100000001</v>
+      </c>
+      <c r="F6">
+        <v>9.2931857099999995</v>
+      </c>
+      <c r="G6">
+        <v>6.3353142900000003</v>
+      </c>
+      <c r="H6">
+        <v>3.2229000000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6">
+        <v>4.4264142900000003</v>
+      </c>
+      <c r="K6">
+        <v>14.079942859999999</v>
+      </c>
+      <c r="L6">
+        <v>24.009128570000001</v>
+      </c>
+      <c r="M6">
+        <v>71.867699999999999</v>
+      </c>
+      <c r="N6">
+        <v>55.6569</v>
+      </c>
+      <c r="O6">
+        <v>36.957428569999998</v>
+      </c>
+      <c r="P6">
+        <v>20.950114289999998</v>
+      </c>
+      <c r="Q6">
+        <v>15.07054286</v>
+      </c>
+      <c r="R6">
+        <v>11.173671430000001</v>
+      </c>
+      <c r="S6">
+        <v>6.96351429</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6">
+        <v>8.8981714299999997</v>
+      </c>
+      <c r="V6">
+        <v>26.452542860000001</v>
+      </c>
+      <c r="W6">
+        <v>76.625057139999996</v>
+      </c>
+      <c r="X6">
+        <v>67.542599999999993</v>
+      </c>
+      <c r="Y6">
+        <v>7.5671142900000001</v>
+      </c>
+      <c r="Z6">
+        <v>8.7921428600000002</v>
+      </c>
+      <c r="AA6">
+        <v>0.87625713999999999</v>
+      </c>
+      <c r="AB6">
+        <v>8.2082571400000006</v>
+      </c>
+      <c r="AC6">
+        <v>5.96592857</v>
+      </c>
+      <c r="AD6">
+        <v>1.4907428599999999</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6">
+        <v>4.1223000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>16.890428570000001</v>
+      </c>
+      <c r="AH6">
+        <v>19.75131429</v>
+      </c>
+      <c r="AI6">
+        <v>370.2165</v>
+      </c>
+      <c r="AJ6">
+        <v>60.919600000000003</v>
+      </c>
+      <c r="AK6">
+        <v>56.138399999999997</v>
+      </c>
+      <c r="AL6">
+        <v>39.877200000000002</v>
+      </c>
+      <c r="AM6">
+        <v>88.321399999999997</v>
+      </c>
+      <c r="AN6">
+        <v>94.399600000000007</v>
+      </c>
+      <c r="AO6">
+        <v>45.890599999999999</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ6">
+        <v>93.030100000000004</v>
+      </c>
+      <c r="AR6">
+        <v>120.3683</v>
+      </c>
+      <c r="AS6">
+        <v>82.630600000000001</v>
+      </c>
+      <c r="AT6">
+        <v>4</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>29.497199999999999</v>
+      </c>
+      <c r="C7">
+        <v>5.4554999999999998</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>26.68024286</v>
+      </c>
+      <c r="F7">
+        <v>9.5560714299999994</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>8.2710857099999995</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>9.8323285699999996</v>
+      </c>
+      <c r="K7">
+        <v>5.1766285700000001</v>
+      </c>
+      <c r="L7">
+        <v>18.252214290000001</v>
+      </c>
+      <c r="M7">
+        <v>113.262</v>
+      </c>
+      <c r="N7">
+        <v>18.106757139999999</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7">
+        <v>54.728742859999997</v>
+      </c>
+      <c r="Q7">
+        <v>18.782571430000001</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7">
+        <v>17.252442859999999</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7">
+        <v>25.757914289999999</v>
+      </c>
+      <c r="V7">
+        <v>11.4735</v>
+      </c>
+      <c r="W7">
+        <v>46.921799999999998</v>
+      </c>
+      <c r="X7">
+        <v>55.104985710000001</v>
+      </c>
+      <c r="Y7">
+        <v>1.7823</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7">
+        <v>4.38334286</v>
+      </c>
+      <c r="AB7">
+        <v>17.360614290000001</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7">
+        <v>7.4109428599999996</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7">
+        <v>7.8722571400000003</v>
+      </c>
+      <c r="AG7">
+        <v>12.32198571</v>
+      </c>
+      <c r="AH7">
+        <v>49.880099999999999</v>
+      </c>
+      <c r="AI7">
+        <v>207.2483</v>
+      </c>
+      <c r="AJ7">
+        <v>32.694499999999998</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7">
+        <v>16.4695</v>
+      </c>
+      <c r="AM7">
+        <v>182.14359999999999</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO7">
+        <v>89.367900000000006</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ7">
+        <v>80.860799999999998</v>
+      </c>
+      <c r="AR7">
+        <v>238.4179</v>
+      </c>
+      <c r="AS7">
+        <v>275.48739999999998</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>2</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>12.00261429</v>
+      </c>
+      <c r="C8">
+        <v>11.060957139999999</v>
+      </c>
+      <c r="D8">
+        <v>9.7220142900000006</v>
+      </c>
+      <c r="E8">
+        <v>16.86077143</v>
+      </c>
+      <c r="F8">
+        <v>9.2068714299999996</v>
+      </c>
+      <c r="G8">
+        <v>2.8032857099999999</v>
+      </c>
+      <c r="H8">
+        <v>4.60675714</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8">
+        <v>68.638885709999997</v>
+      </c>
+      <c r="N8">
+        <v>53.873271430000003</v>
+      </c>
+      <c r="O8">
+        <v>30.140528570000001</v>
+      </c>
+      <c r="P8">
+        <v>47.002457139999997</v>
+      </c>
+      <c r="Q8">
+        <v>16.744371430000001</v>
+      </c>
+      <c r="R8">
+        <v>8.0124428600000002</v>
+      </c>
+      <c r="S8">
+        <v>9.6685714300000001</v>
+      </c>
+      <c r="T8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8">
+        <v>40.416728569999997</v>
+      </c>
+      <c r="Y8">
+        <v>7.0703142899999998</v>
+      </c>
+      <c r="Z8">
+        <v>4.1288142900000002</v>
+      </c>
+      <c r="AA8">
+        <v>5.3032285699999999</v>
+      </c>
+      <c r="AB8">
+        <v>9.9218142900000004</v>
+      </c>
+      <c r="AC8">
+        <v>4.0016571399999998</v>
+      </c>
+      <c r="AD8">
+        <v>2.28608571</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8">
+        <v>336.73390000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>63.921700000000001</v>
+      </c>
+      <c r="AK8">
+        <v>42.468600000000002</v>
+      </c>
+      <c r="AL8">
+        <v>31.452999999999999</v>
+      </c>
+      <c r="AM8">
+        <v>107.76519999999999</v>
+      </c>
+      <c r="AN8">
+        <v>142.74950000000001</v>
+      </c>
+      <c r="AO8">
+        <v>49.624899999999997</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT8">
+        <v>14</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>4</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>15.40761429</v>
+      </c>
+      <c r="C9">
+        <v>11.78014286</v>
+      </c>
+      <c r="D9">
+        <v>8.6658428599999997</v>
+      </c>
+      <c r="E9">
+        <v>9.4166571399999999</v>
+      </c>
+      <c r="F9">
+        <v>9.1824857099999999</v>
+      </c>
+      <c r="G9">
+        <v>2.9083714299999999</v>
+      </c>
+      <c r="H9">
+        <v>7.0246714299999997</v>
+      </c>
+      <c r="I9">
+        <v>10.53471429</v>
+      </c>
+      <c r="J9">
+        <v>5.4243428600000003</v>
+      </c>
+      <c r="K9">
+        <v>7.1879999999999997</v>
+      </c>
+      <c r="L9">
+        <v>21.050314289999999</v>
+      </c>
+      <c r="M9">
+        <v>74.601685709999998</v>
+      </c>
+      <c r="N9">
+        <v>32.498100000000001</v>
+      </c>
+      <c r="O9">
+        <v>17.668628569999999</v>
+      </c>
+      <c r="P9">
+        <v>30.305657140000001</v>
+      </c>
+      <c r="Q9">
+        <v>18.003685709999999</v>
+      </c>
+      <c r="R9">
+        <v>7.8972428600000004</v>
+      </c>
+      <c r="S9">
+        <v>14.04925714</v>
+      </c>
+      <c r="T9">
+        <v>26.67947143</v>
+      </c>
+      <c r="U9">
+        <v>13.639542860000001</v>
+      </c>
+      <c r="V9">
+        <v>13.742271430000001</v>
+      </c>
+      <c r="W9">
+        <v>47.095757140000003</v>
+      </c>
+      <c r="X9">
+        <v>34.93397143</v>
+      </c>
+      <c r="Y9">
+        <v>5.6394428599999999</v>
+      </c>
+      <c r="Z9">
+        <v>2.1237857099999999</v>
+      </c>
+      <c r="AA9">
+        <v>3.4707428600000001</v>
+      </c>
+      <c r="AB9">
+        <v>6.7369285699999999</v>
+      </c>
+      <c r="AC9">
+        <v>1.3435714299999999</v>
+      </c>
+      <c r="AD9">
+        <v>2.8961999999999999</v>
+      </c>
+      <c r="AE9">
+        <v>4.0954285700000002</v>
+      </c>
+      <c r="AF9">
+        <v>4.2697714299999996</v>
+      </c>
+      <c r="AG9">
+        <v>17.787985710000001</v>
+      </c>
+      <c r="AH9">
+        <v>36.638014290000001</v>
+      </c>
+      <c r="AI9">
+        <v>242.73439999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>48.046100000000003</v>
+      </c>
+      <c r="AK9">
+        <v>24.550799999999999</v>
+      </c>
+      <c r="AL9">
+        <v>36.858600000000003</v>
+      </c>
+      <c r="AM9">
+        <v>73.351600000000005</v>
+      </c>
+      <c r="AN9">
+        <v>46.143700000000003</v>
+      </c>
+      <c r="AO9">
+        <v>41.239800000000002</v>
+      </c>
+      <c r="AP9">
+        <v>38.801600000000001</v>
+      </c>
+      <c r="AQ9">
+        <v>78.550799999999995</v>
+      </c>
+      <c r="AR9">
+        <v>247.4367</v>
+      </c>
+      <c r="AS9">
+        <v>174.5812</v>
+      </c>
+      <c r="AT9">
+        <v>3</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>13.01421429</v>
+      </c>
+      <c r="C10">
+        <v>13.99628571</v>
+      </c>
+      <c r="D10">
+        <v>5.7092142900000002</v>
+      </c>
+      <c r="E10">
+        <v>5.8220999999999998</v>
+      </c>
+      <c r="F10">
+        <v>9.3083142900000002</v>
+      </c>
+      <c r="G10">
+        <v>6.3237428600000003</v>
+      </c>
+      <c r="H10">
+        <v>8.4186857100000001</v>
+      </c>
+      <c r="I10">
+        <v>6.8517857099999997</v>
+      </c>
+      <c r="J10">
+        <v>11.88621429</v>
+      </c>
+      <c r="K10">
+        <v>10.957971430000001</v>
+      </c>
+      <c r="L10">
+        <v>17.279399999999999</v>
+      </c>
+      <c r="M10">
+        <v>84.060214290000005</v>
+      </c>
+      <c r="N10">
+        <v>44.946857139999999</v>
+      </c>
+      <c r="O10">
+        <v>17.537485709999999</v>
+      </c>
+      <c r="P10">
+        <v>16.793014289999999</v>
+      </c>
+      <c r="Q10">
+        <v>16.111028569999998</v>
+      </c>
+      <c r="R10">
+        <v>14.61702857</v>
+      </c>
+      <c r="S10">
+        <v>13.044</v>
+      </c>
+      <c r="T10">
+        <v>23.052514290000001</v>
+      </c>
+      <c r="U10">
+        <v>36.268885709999999</v>
+      </c>
+      <c r="V10">
+        <v>25.059042860000002</v>
+      </c>
+      <c r="W10">
+        <v>45.939300000000003</v>
+      </c>
+      <c r="X10">
+        <v>61.140042860000001</v>
+      </c>
+      <c r="Y10">
+        <v>7.0411714300000003</v>
+      </c>
+      <c r="Z10">
+        <v>3.1556571400000002</v>
+      </c>
+      <c r="AA10">
+        <v>2.6665714299999999</v>
+      </c>
+      <c r="AB10">
+        <v>12.431185709999999</v>
+      </c>
+      <c r="AC10">
+        <v>4.4904428599999999</v>
+      </c>
+      <c r="AD10">
+        <v>5.1419571399999997</v>
+      </c>
+      <c r="AE10">
+        <v>2.5092428600000001</v>
+      </c>
+      <c r="AF10">
+        <v>9.7435714299999994</v>
+      </c>
+      <c r="AG10">
+        <v>23.899328570000002</v>
+      </c>
+      <c r="AH10">
+        <v>49.119685709999999</v>
+      </c>
+      <c r="AI10">
+        <v>514.49019999999996</v>
+      </c>
+      <c r="AJ10">
+        <v>50.4193</v>
+      </c>
+      <c r="AK10">
+        <v>55.442700000000002</v>
+      </c>
+      <c r="AL10">
+        <v>46.276000000000003</v>
+      </c>
+      <c r="AM10">
+        <v>133.5651</v>
+      </c>
+      <c r="AN10">
+        <v>71.085300000000004</v>
+      </c>
+      <c r="AO10">
+        <v>61.059899999999999</v>
+      </c>
+      <c r="AP10">
+        <v>36.653599999999997</v>
+      </c>
+      <c r="AQ10">
+        <v>82.456400000000002</v>
+      </c>
+      <c r="AR10">
+        <v>218.19470000000001</v>
+      </c>
+      <c r="AS10">
+        <v>283.87240000000003</v>
+      </c>
+      <c r="AT10">
+        <v>4</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>13.72392857</v>
+      </c>
+      <c r="C11">
+        <v>9.3628714300000002</v>
+      </c>
+      <c r="D11">
+        <v>7.3976571399999997</v>
+      </c>
+      <c r="E11">
+        <v>8.8772571399999993</v>
+      </c>
+      <c r="F11">
+        <v>13.048585709999999</v>
+      </c>
+      <c r="G11">
+        <v>7.8700714300000003</v>
+      </c>
+      <c r="H11">
+        <v>4.7082857100000002</v>
+      </c>
+      <c r="I11">
+        <v>4.8206571399999998</v>
+      </c>
+      <c r="J11">
+        <v>4.3898571400000002</v>
+      </c>
+      <c r="K11">
+        <v>11.581714290000001</v>
+      </c>
+      <c r="L11">
+        <v>25.009714290000002</v>
+      </c>
+      <c r="M11">
+        <v>48.089142860000003</v>
+      </c>
+      <c r="N11">
+        <v>30.303899999999999</v>
+      </c>
+      <c r="O11">
+        <v>21.67902857</v>
+      </c>
+      <c r="P11">
+        <v>24.6585</v>
+      </c>
+      <c r="Q11">
+        <v>23.12862857</v>
+      </c>
+      <c r="R11">
+        <v>15.65815714</v>
+      </c>
+      <c r="S11">
+        <v>9.4880999999999993</v>
+      </c>
+      <c r="T11">
+        <v>12.90051429</v>
+      </c>
+      <c r="U11">
+        <v>11.55287143</v>
+      </c>
+      <c r="V11">
+        <v>23.964600000000001</v>
+      </c>
+      <c r="W11">
+        <v>59.07222857</v>
+      </c>
+      <c r="X11">
+        <v>43.733142860000001</v>
+      </c>
+      <c r="Y11">
+        <v>4.0080428599999998</v>
+      </c>
+      <c r="Z11">
+        <v>3.3336428599999999</v>
+      </c>
+      <c r="AA11">
+        <v>3.3090000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>7.9012714300000004</v>
+      </c>
+      <c r="AC11">
+        <v>3.4835571399999998</v>
+      </c>
+      <c r="AD11">
+        <v>2.3647714299999998</v>
+      </c>
+      <c r="AE11">
+        <v>2.3685857100000001</v>
+      </c>
+      <c r="AF11">
+        <v>1.8188142899999999</v>
+      </c>
+      <c r="AG11">
+        <v>14.19008571</v>
+      </c>
+      <c r="AH11">
+        <v>42.038614289999998</v>
+      </c>
+      <c r="AI11">
+        <v>326.84320000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>42.988100000000003</v>
+      </c>
+      <c r="AK11">
+        <v>44.668599999999998</v>
+      </c>
+      <c r="AL11">
+        <v>37.264699999999998</v>
+      </c>
+      <c r="AM11">
+        <v>60.588099999999997</v>
+      </c>
+      <c r="AN11">
+        <v>44.188099999999999</v>
+      </c>
+      <c r="AO11">
+        <v>50.269399999999997</v>
+      </c>
+      <c r="AP11">
+        <v>49.209200000000003</v>
+      </c>
+      <c r="AQ11">
+        <v>41.6389</v>
+      </c>
+      <c r="AR11">
+        <v>122.80889999999999</v>
+      </c>
+      <c r="AS11">
+        <v>168.72450000000001</v>
+      </c>
+      <c r="AT11">
+        <v>9</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11.8788</v>
+      </c>
+      <c r="C12">
+        <v>18.024942859999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>13.136357139999999</v>
+      </c>
+      <c r="F12">
+        <v>12.89082857</v>
+      </c>
+      <c r="G12">
+        <v>5.9256857099999998</v>
+      </c>
+      <c r="H12">
+        <v>7.46524286</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12">
+        <v>6.7895142899999996</v>
+      </c>
+      <c r="K12">
+        <v>15.59181429</v>
+      </c>
+      <c r="L12">
+        <v>11.918357139999999</v>
+      </c>
+      <c r="M12">
+        <v>59.223771429999999</v>
+      </c>
+      <c r="N12">
+        <v>37.633157140000002</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12">
+        <v>26.47937143</v>
+      </c>
+      <c r="Q12">
+        <v>22.76961429</v>
+      </c>
+      <c r="R12">
+        <v>10.943014290000001</v>
+      </c>
+      <c r="S12">
+        <v>13.11792857</v>
+      </c>
+      <c r="T12" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12">
+        <v>19.169871430000001</v>
+      </c>
+      <c r="V12">
+        <v>31.714671429999999</v>
+      </c>
+      <c r="W12">
+        <v>54.142928570000002</v>
+      </c>
+      <c r="X12">
+        <v>25.750414289999998</v>
+      </c>
+      <c r="Y12">
+        <v>6.1824857099999999</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12">
+        <v>3.6420428600000001</v>
+      </c>
+      <c r="AB12">
+        <v>7.1021999999999998</v>
+      </c>
+      <c r="AC12">
+        <v>3.3411</v>
+      </c>
+      <c r="AD12">
+        <v>2.8502571400000001</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF12">
+        <v>4.9681714299999999</v>
+      </c>
+      <c r="AG12">
+        <v>8.0592000000000006</v>
+      </c>
+      <c r="AH12">
+        <v>27.506228570000001</v>
+      </c>
+      <c r="AI12">
+        <v>217.60429999999999</v>
+      </c>
+      <c r="AJ12">
+        <v>34.282400000000003</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL12">
+        <v>27.766100000000002</v>
+      </c>
+      <c r="AM12">
+        <v>55.146700000000003</v>
+      </c>
+      <c r="AN12">
+        <v>56.221600000000002</v>
+      </c>
+      <c r="AO12">
+        <v>38.131300000000003</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ12">
+        <v>72.975999999999999</v>
+      </c>
+      <c r="AR12">
+        <v>51.668900000000001</v>
+      </c>
+      <c r="AS12">
+        <v>229.4753</v>
+      </c>
+      <c r="AT12">
+        <v>4</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>17.65937143</v>
+      </c>
+      <c r="C13">
+        <v>5.5652142900000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>7.3635857099999997</v>
+      </c>
+      <c r="F13">
+        <v>9.1399714299999992</v>
+      </c>
+      <c r="G13">
+        <v>8.7339000000000002</v>
+      </c>
+      <c r="H13">
+        <v>4.5704571400000003</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <v>4.1627142900000003</v>
+      </c>
+      <c r="K13">
+        <v>10.227</v>
+      </c>
+      <c r="L13">
+        <v>16.186199999999999</v>
+      </c>
+      <c r="M13">
+        <v>68.429914289999999</v>
+      </c>
+      <c r="N13">
+        <v>29.060014290000002</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13">
+        <v>14.14465714</v>
+      </c>
+      <c r="Q13">
+        <v>17.694771429999999</v>
+      </c>
+      <c r="R13">
+        <v>33.628928569999999</v>
+      </c>
+      <c r="S13">
+        <v>10.18735714</v>
+      </c>
+      <c r="T13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13">
+        <v>9.8486999999999991</v>
+      </c>
+      <c r="V13">
+        <v>20.70235714</v>
+      </c>
+      <c r="W13">
+        <v>63.762771430000001</v>
+      </c>
+      <c r="X13">
+        <v>51.403328569999999</v>
+      </c>
+      <c r="Y13">
+        <v>4.3681285699999997</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13">
+        <v>2.5131428599999999</v>
+      </c>
+      <c r="AB13">
+        <v>6.3708428599999998</v>
+      </c>
+      <c r="AC13">
+        <v>3.7506428600000001</v>
+      </c>
+      <c r="AD13">
+        <v>2.57271429</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF13">
+        <v>5.3665285699999998</v>
+      </c>
+      <c r="AG13">
+        <v>16.988057139999999</v>
+      </c>
+      <c r="AH13">
+        <v>37.879285709999998</v>
+      </c>
+      <c r="AI13">
+        <v>318.87520000000001</v>
+      </c>
+      <c r="AJ13">
+        <v>177.80590000000001</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL13">
+        <v>34.226999999999997</v>
+      </c>
+      <c r="AM13">
+        <v>69.6691</v>
+      </c>
+      <c r="AN13">
+        <v>43.518099999999997</v>
+      </c>
+      <c r="AO13">
+        <v>56.411499999999997</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ13">
+        <v>128.99600000000001</v>
+      </c>
+      <c r="AR13">
+        <v>167.7329</v>
+      </c>
+      <c r="AS13">
+        <v>233.5668</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>14.834657139999999</v>
+      </c>
+      <c r="C14">
+        <v>10.934485710000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>18.831900000000001</v>
+      </c>
+      <c r="F14">
+        <v>8.4428999999999998</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>7.0590428599999999</v>
+      </c>
+      <c r="I14">
+        <v>9.2019428600000008</v>
+      </c>
+      <c r="J14">
+        <v>6.0309428599999997</v>
+      </c>
+      <c r="K14">
+        <v>13.89985714</v>
+      </c>
+      <c r="L14">
+        <v>21.017700000000001</v>
+      </c>
+      <c r="M14">
+        <v>75.311614289999994</v>
+      </c>
+      <c r="N14">
+        <v>55.439785710000002</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14">
+        <v>37.499314290000001</v>
+      </c>
+      <c r="Q14">
+        <v>18.697542859999999</v>
+      </c>
+      <c r="R14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14">
+        <v>14.88758571</v>
+      </c>
+      <c r="T14">
+        <v>36.523200000000003</v>
+      </c>
+      <c r="U14">
+        <v>15.0252</v>
+      </c>
+      <c r="V14">
+        <v>27.339728569999998</v>
+      </c>
+      <c r="W14">
+        <v>95.154214289999999</v>
+      </c>
+      <c r="X14">
+        <v>49.069628569999999</v>
+      </c>
+      <c r="Y14">
+        <v>12.42192857</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14">
+        <v>6.8404285700000003</v>
+      </c>
+      <c r="AB14">
+        <v>10.02077143</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD14">
+        <v>3.4042714300000001</v>
+      </c>
+      <c r="AE14">
+        <v>5.9531999999999998</v>
+      </c>
+      <c r="AF14">
+        <v>5.6668285699999998</v>
+      </c>
+      <c r="AG14">
+        <v>28.222028569999999</v>
+      </c>
+      <c r="AH14">
+        <v>52.691699999999997</v>
+      </c>
+      <c r="AI14">
+        <v>349.84190000000001</v>
+      </c>
+      <c r="AJ14">
+        <v>281.93110000000001</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL14">
+        <v>36.246499999999997</v>
+      </c>
+      <c r="AM14">
+        <v>118.7504</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO14">
+        <v>48.272399999999998</v>
+      </c>
+      <c r="AP14">
+        <v>56.8583</v>
+      </c>
+      <c r="AQ14">
+        <v>93.978499999999997</v>
+      </c>
+      <c r="AR14">
+        <v>203.0778</v>
+      </c>
+      <c r="AS14">
+        <v>251.6626</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>10.941514290000001</v>
+      </c>
+      <c r="C15">
+        <v>17.603914289999999</v>
+      </c>
+      <c r="D15">
+        <v>4.47111429</v>
+      </c>
+      <c r="E15">
+        <v>7.7266285699999999</v>
+      </c>
+      <c r="F15">
+        <v>8.7464142900000006</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>4.1707285699999996</v>
+      </c>
+      <c r="I15">
+        <v>4.4036142900000002</v>
+      </c>
+      <c r="J15">
+        <v>16.12392857</v>
+      </c>
+      <c r="K15">
+        <v>4.3657285699999999</v>
+      </c>
+      <c r="L15">
+        <v>27.180814290000001</v>
+      </c>
+      <c r="M15">
+        <v>46.602642860000003</v>
+      </c>
+      <c r="N15">
+        <v>54.516342860000002</v>
+      </c>
+      <c r="O15">
+        <v>10.70952857</v>
+      </c>
+      <c r="P15">
+        <v>17.100557139999999</v>
+      </c>
+      <c r="Q15">
+        <v>15.154028569999999</v>
+      </c>
+      <c r="R15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15">
+        <v>8.1550285700000007</v>
+      </c>
+      <c r="T15">
+        <v>8.1113142899999993</v>
+      </c>
+      <c r="U15">
+        <v>27.819257140000001</v>
+      </c>
+      <c r="V15">
+        <v>11.898685710000001</v>
+      </c>
+      <c r="W15">
+        <v>38.549357139999998</v>
+      </c>
+      <c r="X15">
+        <v>28.989085710000001</v>
+      </c>
+      <c r="Y15">
+        <v>7.9752428599999998</v>
+      </c>
+      <c r="Z15">
+        <v>2.4876428599999998</v>
+      </c>
+      <c r="AA15">
+        <v>3.31868571</v>
+      </c>
+      <c r="AB15">
+        <v>11.271985709999999</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15">
+        <v>2.3643428599999998</v>
+      </c>
+      <c r="AE15">
+        <v>0.54402857000000004</v>
+      </c>
+      <c r="AF15">
+        <v>4.7520428600000004</v>
+      </c>
+      <c r="AG15">
+        <v>5.5370999999999997</v>
+      </c>
+      <c r="AH15">
+        <v>8.9101714300000001</v>
+      </c>
+      <c r="AI15">
+        <v>276.63869999999997</v>
+      </c>
+      <c r="AJ15">
+        <v>45.164099999999998</v>
+      </c>
+      <c r="AK15">
+        <v>55.735399999999998</v>
+      </c>
+      <c r="AL15">
+        <v>42.962899999999998</v>
+      </c>
+      <c r="AM15">
+        <v>128.93260000000001</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO15">
+        <v>56.705100000000002</v>
+      </c>
+      <c r="AP15">
+        <v>12.366199999999999</v>
+      </c>
+      <c r="AQ15">
+        <v>29.474599999999999</v>
+      </c>
+      <c r="AR15">
+        <v>126.9395</v>
+      </c>
+      <c r="AS15">
+        <v>32.828099999999999</v>
+      </c>
+      <c r="AT15">
+        <v>7</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>16.899814289999998</v>
+      </c>
+      <c r="C16">
+        <v>11.532857140000001</v>
+      </c>
+      <c r="D16">
+        <v>5.7044571399999997</v>
+      </c>
+      <c r="E16">
+        <v>4.2677571399999996</v>
+      </c>
+      <c r="F16">
+        <v>8.9754428599999994</v>
+      </c>
+      <c r="G16">
+        <v>5.6620714300000001</v>
+      </c>
+      <c r="H16">
+        <v>3.23382857</v>
+      </c>
+      <c r="I16">
+        <v>2.9508000000000001</v>
+      </c>
+      <c r="J16">
+        <v>6.4488000000000003</v>
+      </c>
+      <c r="K16">
+        <v>10.070057139999999</v>
+      </c>
+      <c r="L16">
+        <v>27.00261429</v>
+      </c>
+      <c r="M16">
+        <v>103.55395713999999</v>
+      </c>
+      <c r="N16">
+        <v>57.652628569999997</v>
+      </c>
+      <c r="O16">
+        <v>15.296271429999999</v>
+      </c>
+      <c r="P16">
+        <v>13.61018571</v>
+      </c>
+      <c r="Q16">
+        <v>18.604285709999999</v>
+      </c>
+      <c r="R16">
+        <v>20.56787143</v>
+      </c>
+      <c r="S16">
+        <v>6.75252857</v>
+      </c>
+      <c r="T16">
+        <v>12.90904286</v>
+      </c>
+      <c r="U16">
+        <v>27.182400000000001</v>
+      </c>
+      <c r="V16">
+        <v>22.305685709999999</v>
+      </c>
+      <c r="W16">
+        <v>59.168957140000003</v>
+      </c>
+      <c r="X16">
+        <v>37.32522857</v>
+      </c>
+      <c r="Y16">
+        <v>2.9589857099999999</v>
+      </c>
+      <c r="Z16">
+        <v>2.05654286</v>
+      </c>
+      <c r="AA16">
+        <v>1.72997143</v>
+      </c>
+      <c r="AB16">
+        <v>4.7882571399999998</v>
+      </c>
+      <c r="AC16">
+        <v>1.8274714299999999</v>
+      </c>
+      <c r="AD16">
+        <v>1.6607571400000001</v>
+      </c>
+      <c r="AE16">
+        <v>1.81842857</v>
+      </c>
+      <c r="AF16">
+        <v>4.00581429</v>
+      </c>
+      <c r="AG16">
+        <v>19.64867143</v>
+      </c>
+      <c r="AH16">
+        <v>39.997671429999997</v>
+      </c>
+      <c r="AI16">
+        <v>252.0659</v>
+      </c>
+      <c r="AJ16">
+        <v>25.875699999999998</v>
+      </c>
+      <c r="AK16">
+        <v>35.995699999999999</v>
+      </c>
+      <c r="AL16">
+        <v>40.492199999999997</v>
+      </c>
+      <c r="AM16">
+        <v>53.430999999999997</v>
+      </c>
+      <c r="AN16">
+        <v>33.316699999999997</v>
+      </c>
+      <c r="AO16">
+        <v>51.357199999999999</v>
+      </c>
+      <c r="AP16">
+        <v>61.484299999999998</v>
+      </c>
+      <c r="AQ16">
+        <v>61.8401</v>
+      </c>
+      <c r="AR16">
+        <v>195.33439999999999</v>
+      </c>
+      <c r="AS16">
+        <v>148.97649999999999</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>19.970400000000001</v>
+      </c>
+      <c r="C17">
+        <v>23.56118571</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>36.78887143</v>
+      </c>
+      <c r="F17">
+        <v>14.166085710000001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17">
+        <v>9.6483000000000008</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17">
+        <v>10.879542860000001</v>
+      </c>
+      <c r="K17">
+        <v>5.9436</v>
+      </c>
+      <c r="L17">
+        <v>21.222899999999999</v>
+      </c>
+      <c r="M17">
+        <v>88.185985709999997</v>
+      </c>
+      <c r="N17">
+        <v>54.08738571</v>
+      </c>
+      <c r="O17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17">
+        <v>61.300457139999999</v>
+      </c>
+      <c r="Q17">
+        <v>27.40782857</v>
+      </c>
+      <c r="R17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17">
+        <v>19.106999999999999</v>
+      </c>
+      <c r="T17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17">
+        <v>31.81568571</v>
+      </c>
+      <c r="V17">
+        <v>16.556100000000001</v>
+      </c>
+      <c r="W17">
+        <v>59.451342859999997</v>
+      </c>
+      <c r="X17">
+        <v>54.697414289999998</v>
+      </c>
+      <c r="Y17">
+        <v>9.5849142900000004</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA17">
+        <v>5.45361429</v>
+      </c>
+      <c r="AB17">
+        <v>16.337014289999999</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD17">
+        <v>6.40705714</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17">
+        <v>8.5968428600000006</v>
+      </c>
+      <c r="AG17">
+        <v>14.727771430000001</v>
+      </c>
+      <c r="AH17">
+        <v>50.872585710000003</v>
+      </c>
+      <c r="AI17">
+        <v>300.0077</v>
+      </c>
+      <c r="AJ17">
+        <v>40.709899999999998</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL17">
+        <v>14.87</v>
+      </c>
+      <c r="AM17">
+        <v>115.32429999999999</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO17">
+        <v>66.628</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ17">
+        <v>79.144999999999996</v>
+      </c>
+      <c r="AR17">
+        <v>247.78049999999999</v>
+      </c>
+      <c r="AS17">
+        <v>240.39850000000001</v>
+      </c>
+      <c r="AT17">
+        <v>2</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>12.630085709999999</v>
+      </c>
+      <c r="C18">
+        <v>25.05852857</v>
+      </c>
+      <c r="D18">
+        <v>7.74977143</v>
+      </c>
+      <c r="E18">
+        <v>20.118257140000001</v>
+      </c>
+      <c r="F18">
+        <v>10.34858571</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <v>7.9257</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18">
+        <v>8.3981142900000005</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18">
+        <v>11.366271429999999</v>
+      </c>
+      <c r="M18">
+        <v>50.734157140000001</v>
+      </c>
+      <c r="N18">
+        <v>55.624371429999997</v>
+      </c>
+      <c r="O18">
+        <v>26.48644286</v>
+      </c>
+      <c r="P18">
+        <v>40.144585710000001</v>
+      </c>
+      <c r="Q18">
+        <v>18.3459</v>
+      </c>
+      <c r="R18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18">
+        <v>16.275942860000001</v>
+      </c>
+      <c r="T18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18">
+        <v>18.95207143</v>
+      </c>
+      <c r="V18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18">
+        <v>33.866914289999997</v>
+      </c>
+      <c r="X18">
+        <v>27.098314290000001</v>
+      </c>
+      <c r="Y18">
+        <v>12.582942859999999</v>
+      </c>
+      <c r="Z18">
+        <v>5.3778857100000002</v>
+      </c>
+      <c r="AA18">
+        <v>7.1049428600000004</v>
+      </c>
+      <c r="AB18">
+        <v>12.59794286</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18">
+        <v>5.6340857099999999</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF18">
+        <v>4.9489714300000003</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18">
+        <v>46.088828569999997</v>
+      </c>
+      <c r="AI18">
+        <v>224.27760000000001</v>
+      </c>
+      <c r="AJ18">
+        <v>50.2864</v>
+      </c>
+      <c r="AK18">
+        <v>68.994699999999995</v>
+      </c>
+      <c r="AL18">
+        <v>35.337600000000002</v>
+      </c>
+      <c r="AM18">
+        <v>121.7577</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO18">
+        <v>71.1648</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ18">
+        <v>59.325400000000002</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS18">
+        <v>405.56760000000003</v>
+      </c>
+      <c r="AT18">
+        <v>7</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>16.8627</v>
+      </c>
+      <c r="C19">
+        <v>21.277371429999999</v>
+      </c>
+      <c r="D19">
+        <v>17.869457140000002</v>
+      </c>
+      <c r="E19">
+        <v>9.3153000000000006</v>
+      </c>
+      <c r="F19">
+        <v>10.72534286</v>
+      </c>
+      <c r="G19">
+        <v>6.3805285700000001</v>
+      </c>
+      <c r="H19">
+        <v>6.4850571400000003</v>
+      </c>
+      <c r="I19">
+        <v>14.34394286</v>
+      </c>
+      <c r="J19">
+        <v>4.4058857099999997</v>
+      </c>
+      <c r="K19">
+        <v>18.671099999999999</v>
+      </c>
+      <c r="L19">
+        <v>25.521942859999999</v>
+      </c>
+      <c r="M19">
+        <v>66.3429</v>
+      </c>
+      <c r="N19">
+        <v>77.284285710000006</v>
+      </c>
+      <c r="O19">
+        <v>49.04652857</v>
+      </c>
+      <c r="P19">
+        <v>19.229357140000001</v>
+      </c>
+      <c r="Q19">
+        <v>19.187657139999999</v>
+      </c>
+      <c r="R19">
+        <v>10.741714290000001</v>
+      </c>
+      <c r="S19">
+        <v>12.6225</v>
+      </c>
+      <c r="T19">
+        <v>21.668057139999998</v>
+      </c>
+      <c r="U19">
+        <v>11.823</v>
+      </c>
+      <c r="V19">
+        <v>30.493542860000002</v>
+      </c>
+      <c r="W19">
+        <v>76.724871429999993</v>
+      </c>
+      <c r="X19">
+        <v>64.850657139999996</v>
+      </c>
+      <c r="Y19">
+        <v>11.728714289999999</v>
+      </c>
+      <c r="Z19">
+        <v>9.8375142899999997</v>
+      </c>
+      <c r="AA19">
+        <v>2.4592714299999998</v>
+      </c>
+      <c r="AB19">
+        <v>17.893757140000002</v>
+      </c>
+      <c r="AC19">
+        <v>3.9503142900000001</v>
+      </c>
+      <c r="AD19">
+        <v>3.4659</v>
+      </c>
+      <c r="AE19">
+        <v>2.9197285700000002</v>
+      </c>
+      <c r="AF19">
+        <v>2.0731714299999999</v>
+      </c>
+      <c r="AG19">
+        <v>16.551814289999999</v>
+      </c>
+      <c r="AH19">
+        <v>27.101057140000002</v>
+      </c>
+      <c r="AI19">
+        <v>409.2201</v>
+      </c>
+      <c r="AJ19">
+        <v>56.995600000000003</v>
+      </c>
+      <c r="AK19">
+        <v>54.540999999999997</v>
+      </c>
+      <c r="AL19">
+        <v>26.3123</v>
+      </c>
+      <c r="AM19">
+        <v>166.8049</v>
+      </c>
+      <c r="AN19">
+        <v>61.984699999999997</v>
+      </c>
+      <c r="AO19">
+        <v>53.434699999999999</v>
+      </c>
+      <c r="AP19">
+        <v>20.338100000000001</v>
+      </c>
+      <c r="AQ19">
+        <v>47.058999999999997</v>
+      </c>
+      <c r="AR19">
+        <v>88.554000000000002</v>
+      </c>
+      <c r="AS19">
+        <v>105.9226</v>
+      </c>
+      <c r="AT19">
+        <v>22</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>3</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>17.478642860000001</v>
+      </c>
+      <c r="C20">
+        <v>5.9061000000000003</v>
+      </c>
+      <c r="D20">
+        <v>5.0379857100000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>17.983028569999998</v>
+      </c>
+      <c r="L20">
+        <v>16.966414289999999</v>
+      </c>
+      <c r="M20">
+        <v>60.244114289999999</v>
+      </c>
+      <c r="N20">
+        <v>56.029328569999997</v>
+      </c>
+      <c r="O20">
+        <v>12.418414289999999</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20">
+        <v>33.500571430000001</v>
+      </c>
+      <c r="W20">
+        <v>30.250114289999999</v>
+      </c>
+      <c r="X20">
+        <v>29.125800000000002</v>
+      </c>
+      <c r="Y20">
+        <v>1.95158571</v>
+      </c>
+      <c r="Z20">
+        <v>1.34704286</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG20">
+        <v>8.7044571400000006</v>
+      </c>
+      <c r="AH20">
+        <v>13.222028570000001</v>
+      </c>
+      <c r="AI20">
+        <v>174.2441</v>
+      </c>
+      <c r="AJ20">
+        <v>32.391599999999997</v>
+      </c>
+      <c r="AK20">
+        <v>26.857399999999998</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR20">
+        <v>48.400399999999998</v>
+      </c>
+      <c r="AS20">
+        <v>78.330100000000002</v>
+      </c>
+      <c r="AT20">
+        <v>5</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>27.72797143</v>
+      </c>
+      <c r="C21">
+        <v>15.884742859999999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>10.25901429</v>
+      </c>
+      <c r="F21">
+        <v>8.4940285699999993</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>8.0932285700000008</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>2.9157428599999999</v>
+      </c>
+      <c r="K21">
+        <v>9.9736285700000007</v>
+      </c>
+      <c r="L21">
+        <v>41.907857139999997</v>
+      </c>
+      <c r="M21">
+        <v>94.760614290000007</v>
+      </c>
+      <c r="N21">
+        <v>46.774285710000001</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21">
+        <v>26.935842860000001</v>
+      </c>
+      <c r="Q21">
+        <v>15.59485714</v>
+      </c>
+      <c r="R21" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21">
+        <v>17.240014290000001</v>
+      </c>
+      <c r="T21" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21">
+        <v>6.1855714300000004</v>
+      </c>
+      <c r="V21">
+        <v>22.128685709999999</v>
+      </c>
+      <c r="W21">
+        <v>94.955185709999995</v>
+      </c>
+      <c r="X21">
+        <v>87.518271429999999</v>
+      </c>
+      <c r="Y21">
+        <v>6.5279571399999998</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA21">
+        <v>2.48802857</v>
+      </c>
+      <c r="AB21">
+        <v>7.02278571</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21">
+        <v>5.4652285699999998</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF21">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="AG21">
+        <v>17.446628570000001</v>
+      </c>
+      <c r="AH21">
+        <v>35.003185709999997</v>
+      </c>
+      <c r="AI21">
+        <v>314.67189999999999</v>
+      </c>
+      <c r="AJ21">
+        <v>41.091799999999999</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL21">
+        <v>24.2178</v>
+      </c>
+      <c r="AM21">
+        <v>82.681600000000003</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO21">
+        <v>67.543899999999994</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ21">
+        <v>28.316400000000002</v>
+      </c>
+      <c r="AR21">
+        <v>174.8535</v>
+      </c>
+      <c r="AS21">
+        <v>83.652299999999997</v>
+      </c>
+      <c r="AT21">
+        <v>7</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>9.4047428600000007</v>
+      </c>
+      <c r="C22">
+        <v>24.03771429</v>
+      </c>
+      <c r="D22">
+        <v>8.0441142899999996</v>
+      </c>
+      <c r="E22">
+        <v>6.0848571400000004</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>6.3968571399999998</v>
+      </c>
+      <c r="L22">
+        <v>12.93394286</v>
+      </c>
+      <c r="M22">
+        <v>41.785028570000001</v>
+      </c>
+      <c r="N22">
+        <v>61.657457139999998</v>
+      </c>
+      <c r="O22">
+        <v>17.004042859999998</v>
+      </c>
+      <c r="P22">
+        <v>17.09318571</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22">
+        <v>13.569514290000001</v>
+      </c>
+      <c r="W22">
+        <v>56.159142860000003</v>
+      </c>
+      <c r="X22">
+        <v>29.757814289999999</v>
+      </c>
+      <c r="Y22">
+        <v>10.88232857</v>
+      </c>
+      <c r="Z22">
+        <v>5.7572999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>2.5276714299999998</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG22">
+        <v>9.9226714299999994</v>
+      </c>
+      <c r="AH22">
+        <v>21.19127143</v>
+      </c>
+      <c r="AI22">
+        <v>349.8082</v>
+      </c>
+      <c r="AJ22">
+        <v>46.178800000000003</v>
+      </c>
+      <c r="AK22">
+        <v>71.468699999999998</v>
+      </c>
+      <c r="AL22">
+        <v>41.473100000000002</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR22">
+        <v>154.96350000000001</v>
+      </c>
+      <c r="AS22">
+        <v>163.8698</v>
+      </c>
+      <c r="AT22">
+        <v>3</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>4</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+      <c r="AZ22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>21.492171429999999</v>
+      </c>
+      <c r="C23">
+        <v>22.015285710000001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>26.829085710000001</v>
+      </c>
+      <c r="F23">
+        <v>13.95535714</v>
+      </c>
+      <c r="G23">
+        <v>6.69342857</v>
+      </c>
+      <c r="H23">
+        <v>11.71598571</v>
+      </c>
+      <c r="I23">
+        <v>8.3881285699999992</v>
+      </c>
+      <c r="J23">
+        <v>6.9834428600000003</v>
+      </c>
+      <c r="K23">
+        <v>17.623542860000001</v>
+      </c>
+      <c r="L23">
+        <v>12.279299999999999</v>
+      </c>
+      <c r="M23">
+        <v>81.280799999999999</v>
+      </c>
+      <c r="N23">
+        <v>58.476685709999998</v>
+      </c>
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23">
+        <v>59.588142859999998</v>
+      </c>
+      <c r="Q23">
+        <v>23.529471430000001</v>
+      </c>
+      <c r="R23">
+        <v>10.206385709999999</v>
+      </c>
+      <c r="S23">
+        <v>24.56322857</v>
+      </c>
+      <c r="T23">
+        <v>16.370571429999998</v>
+      </c>
+      <c r="U23">
+        <v>20.680028570000001</v>
+      </c>
+      <c r="V23">
+        <v>29.866114289999999</v>
+      </c>
+      <c r="W23">
+        <v>57.22632857</v>
+      </c>
+      <c r="X23">
+        <v>47.436428569999997</v>
+      </c>
+      <c r="Y23">
+        <v>12.098185709999999</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA23">
+        <v>11.65958571</v>
+      </c>
+      <c r="AB23">
+        <v>8.2370999999999999</v>
+      </c>
+      <c r="AC23">
+        <v>3.1328999999999998</v>
+      </c>
+      <c r="AD23">
+        <v>11.548928569999999</v>
+      </c>
+      <c r="AE23">
+        <v>3.2690571400000001</v>
+      </c>
+      <c r="AF23">
+        <v>7.3825285699999998</v>
+      </c>
+      <c r="AG23">
+        <v>24.631671430000001</v>
+      </c>
+      <c r="AH23">
+        <v>35.611285709999997</v>
+      </c>
+      <c r="AI23">
+        <v>246.43879999999999</v>
+      </c>
+      <c r="AJ23">
+        <v>55.258299999999998</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL23">
+        <v>43.536999999999999</v>
+      </c>
+      <c r="AM23">
+        <v>59.0291</v>
+      </c>
+      <c r="AN23">
+        <v>46.822600000000001</v>
+      </c>
+      <c r="AO23">
+        <v>98.486199999999997</v>
+      </c>
+      <c r="AP23">
+        <v>38.972799999999999</v>
+      </c>
+      <c r="AQ23">
+        <v>105.744</v>
+      </c>
+      <c r="AR23">
+        <v>139.87469999999999</v>
+      </c>
+      <c r="AS23">
+        <v>289.95650000000001</v>
+      </c>
+      <c r="AT23">
+        <v>3</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>18.496842860000001</v>
+      </c>
+      <c r="C24">
+        <v>18.44858571</v>
+      </c>
+      <c r="D24">
+        <v>12.97367143</v>
+      </c>
+      <c r="E24">
+        <v>10.82824286</v>
+      </c>
+      <c r="F24">
+        <v>11.07038571</v>
+      </c>
+      <c r="G24">
+        <v>7.2793714300000003</v>
+      </c>
+      <c r="H24">
+        <v>7.9317857099999998</v>
+      </c>
+      <c r="I24">
+        <v>10.11887143</v>
+      </c>
+      <c r="J24">
+        <v>4.4820857099999998</v>
+      </c>
+      <c r="K24">
+        <v>8.2182428600000001</v>
+      </c>
+      <c r="L24">
+        <v>11.122157140000001</v>
+      </c>
+      <c r="M24">
+        <v>99.027342860000005</v>
+      </c>
+      <c r="N24">
+        <v>45.260399999999997</v>
+      </c>
+      <c r="O24">
+        <v>35.290457140000001</v>
+      </c>
+      <c r="P24">
+        <v>28.889485709999999</v>
+      </c>
+      <c r="Q24">
+        <v>19.238314290000002</v>
+      </c>
+      <c r="R24">
+        <v>13.850014290000001</v>
+      </c>
+      <c r="S24">
+        <v>18.60167143</v>
+      </c>
+      <c r="T24">
+        <v>34.577057140000001</v>
+      </c>
+      <c r="U24">
+        <v>12.2895</v>
+      </c>
+      <c r="V24">
+        <v>19.73001429</v>
+      </c>
+      <c r="W24">
+        <v>30.139842860000002</v>
+      </c>
+      <c r="X24">
+        <v>51.842957140000003</v>
+      </c>
+      <c r="Y24">
+        <v>8.9359714300000004</v>
+      </c>
+      <c r="Z24">
+        <v>4.43738571</v>
+      </c>
+      <c r="AA24">
+        <v>4.0622571399999998</v>
+      </c>
+      <c r="AB24">
+        <v>13.171971429999999</v>
+      </c>
+      <c r="AC24">
+        <v>5.3435142899999999</v>
+      </c>
+      <c r="AD24">
+        <v>4.3698857100000001</v>
+      </c>
+      <c r="AE24">
+        <v>2.41902857</v>
+      </c>
+      <c r="AF24">
+        <v>1.5750428599999999</v>
+      </c>
+      <c r="AG24">
+        <v>33.955328569999999</v>
+      </c>
+      <c r="AH24">
+        <v>41.190042859999998</v>
+      </c>
+      <c r="AI24">
+        <v>280.2808</v>
+      </c>
+      <c r="AJ24">
+        <v>48.437399999999997</v>
+      </c>
+      <c r="AK24">
+        <v>34.203099999999999</v>
+      </c>
+      <c r="AL24">
+        <v>37.515500000000003</v>
+      </c>
+      <c r="AM24">
+        <v>118.98399999999999</v>
+      </c>
+      <c r="AN24">
+        <v>73.406099999999995</v>
+      </c>
+      <c r="AO24">
+        <v>55.093600000000002</v>
+      </c>
+      <c r="AP24">
+        <v>23.8431</v>
+      </c>
+      <c r="AQ24">
+        <v>35.140500000000003</v>
+      </c>
+      <c r="AR24">
+        <v>413.17140000000001</v>
+      </c>
+      <c r="AS24">
+        <v>370.3433</v>
+      </c>
+      <c r="AT24">
+        <v>2</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>10.010442859999999</v>
+      </c>
+      <c r="C25">
+        <v>16.757614289999999</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>14.427300000000001</v>
+      </c>
+      <c r="F25">
+        <v>9.4925142900000008</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>4.7138142900000002</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25">
+        <v>52.529314290000002</v>
+      </c>
+      <c r="N25">
+        <v>48.800871430000001</v>
+      </c>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25">
+        <v>38.286557139999999</v>
+      </c>
+      <c r="Q25">
+        <v>14.37111429</v>
+      </c>
+      <c r="R25" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25">
+        <v>9.9200142899999992</v>
+      </c>
+      <c r="T25" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25">
+        <v>35.889042860000004</v>
+      </c>
+      <c r="Y25">
+        <v>10.30855714</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA25">
+        <v>6.3006857099999998</v>
+      </c>
+      <c r="AB25">
+        <v>7.6681714300000001</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD25">
+        <v>3.1494428600000002</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI25">
+        <v>358.51560000000001</v>
+      </c>
+      <c r="AJ25">
+        <v>61.515599999999999</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL25">
+        <v>43.671900000000001</v>
+      </c>
+      <c r="AM25">
+        <v>80.781300000000002</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO25">
+        <v>66.8125</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT25">
+        <v>6</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>9.5967000000000002</v>
+      </c>
+      <c r="C26">
+        <v>17.683114289999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>19.558071429999998</v>
+      </c>
+      <c r="F26">
+        <v>15.289114290000001</v>
+      </c>
+      <c r="G26">
+        <v>9.0188571399999997</v>
+      </c>
+      <c r="H26">
+        <v>15.53712857</v>
+      </c>
+      <c r="I26">
+        <v>11.912314289999999</v>
+      </c>
+      <c r="J26">
+        <v>7.0900714300000001</v>
+      </c>
+      <c r="K26">
+        <v>11.479414289999999</v>
+      </c>
+      <c r="L26">
+        <v>11.74174286</v>
+      </c>
+      <c r="M26">
+        <v>43.138028570000003</v>
+      </c>
+      <c r="N26">
+        <v>46.580742860000001</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26">
+        <v>48.848528569999999</v>
+      </c>
+      <c r="Q26">
+        <v>25.231542860000001</v>
+      </c>
+      <c r="R26">
+        <v>14.40651429</v>
+      </c>
+      <c r="S26">
+        <v>23.915528569999999</v>
+      </c>
+      <c r="T26">
+        <v>21.47472857</v>
+      </c>
+      <c r="U26">
+        <v>14.748557140000001</v>
+      </c>
+      <c r="V26">
+        <v>25.997828569999999</v>
+      </c>
+      <c r="W26">
+        <v>36.02464286</v>
+      </c>
+      <c r="X26">
+        <v>23.739985709999999</v>
+      </c>
+      <c r="Y26">
+        <v>6.8240999999999996</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA26">
+        <v>5.6713714299999998</v>
+      </c>
+      <c r="AB26">
+        <v>12.406628570000001</v>
+      </c>
+      <c r="AC26">
+        <v>3.9145714300000001</v>
+      </c>
+      <c r="AD26">
+        <v>6.5334428600000001</v>
+      </c>
+      <c r="AE26">
+        <v>2.6017714299999999</v>
+      </c>
+      <c r="AF26">
+        <v>1.9202571399999999</v>
+      </c>
+      <c r="AG26">
+        <v>8.6943428600000008</v>
+      </c>
+      <c r="AH26">
+        <v>17.19848571</v>
+      </c>
+      <c r="AI26">
+        <v>253.58869999999999</v>
+      </c>
+      <c r="AJ26">
+        <v>39.464500000000001</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL26">
+        <v>28.8992</v>
+      </c>
+      <c r="AM26">
+        <v>81.107699999999994</v>
+      </c>
+      <c r="AN26">
+        <v>43.395200000000003</v>
+      </c>
+      <c r="AO26">
+        <v>42.051400000000001</v>
+      </c>
+      <c r="AP26">
+        <v>21.8309</v>
+      </c>
+      <c r="AQ26">
+        <v>27.093599999999999</v>
+      </c>
+      <c r="AR26">
+        <v>75.771900000000002</v>
+      </c>
+      <c r="AS26">
+        <v>147.20580000000001</v>
+      </c>
+      <c r="AT26">
+        <v>3</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>3</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>21.583757139999999</v>
+      </c>
+      <c r="C27">
+        <v>15.12308571</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <v>21.073757140000001</v>
+      </c>
+      <c r="F27">
+        <v>14.51168571</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>9.2738571400000005</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27">
+        <v>6.8917714300000004</v>
+      </c>
+      <c r="K27">
+        <v>13.194257139999999</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27">
+        <v>99.292714290000006</v>
+      </c>
+      <c r="N27">
+        <v>37.648585709999999</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27">
+        <v>36.791400000000003</v>
+      </c>
+      <c r="Q27">
+        <v>23.516185709999998</v>
+      </c>
+      <c r="R27" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27">
+        <v>16.077342860000002</v>
+      </c>
+      <c r="T27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27">
+        <v>16.620342860000001</v>
+      </c>
+      <c r="V27">
+        <v>22.25944286</v>
+      </c>
+      <c r="W27" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27">
+        <v>74.824885710000004</v>
+      </c>
+      <c r="Y27">
+        <v>11.280900000000001</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA27">
+        <v>5.9302714300000003</v>
+      </c>
+      <c r="AB27">
+        <v>16.83582857</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD27">
+        <v>7.0220571400000003</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF27">
+        <v>3.2822142900000002</v>
+      </c>
+      <c r="AG27">
+        <v>17.443242860000002</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI27">
+        <v>346.67189999999999</v>
+      </c>
+      <c r="AJ27">
+        <v>74.593699999999998</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL27">
+        <v>28.140599999999999</v>
+      </c>
+      <c r="AM27">
+        <v>116.01560000000001</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO27">
+        <v>75.718699999999998</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ27">
+        <v>47.625</v>
+      </c>
+      <c r="AR27">
+        <v>132.20310000000001</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT27">
+        <v>4</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>4</v>
+      </c>
+      <c r="AX27">
+        <v>1</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>12.626014290000001</v>
+      </c>
+      <c r="C28">
+        <v>5.8596428600000001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28">
+        <v>11.40055714</v>
+      </c>
+      <c r="F28">
+        <v>18.326528570000001</v>
+      </c>
+      <c r="G28">
+        <v>8.2053857099999998</v>
+      </c>
+      <c r="H28">
+        <v>9.4584857099999997</v>
+      </c>
+      <c r="I28">
+        <v>7.4967428600000003</v>
+      </c>
+      <c r="J28">
+        <v>14.33104286</v>
+      </c>
+      <c r="K28">
+        <v>14.53667143</v>
+      </c>
+      <c r="L28">
+        <v>19.14407143</v>
+      </c>
+      <c r="M28">
+        <v>88.067099999999996</v>
+      </c>
+      <c r="N28">
+        <v>14.79587143</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28">
+        <v>26.037557140000001</v>
+      </c>
+      <c r="Q28">
+        <v>35.632800000000003</v>
+      </c>
+      <c r="R28">
+        <v>16.502871429999999</v>
+      </c>
+      <c r="S28">
+        <v>20.643257139999999</v>
+      </c>
+      <c r="T28">
+        <v>20.060400000000001</v>
+      </c>
+      <c r="U28">
+        <v>38.265942860000003</v>
+      </c>
+      <c r="V28">
+        <v>32.805857140000001</v>
+      </c>
+      <c r="W28">
+        <v>44.891014290000001</v>
+      </c>
+      <c r="X28">
+        <v>12.54702857</v>
+      </c>
+      <c r="Y28">
+        <v>2.7668571399999999</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA28">
+        <v>3.7033714299999998</v>
+      </c>
+      <c r="AB28">
+        <v>11.359542859999999</v>
+      </c>
+      <c r="AC28">
+        <v>4.9206428600000001</v>
+      </c>
+      <c r="AD28">
+        <v>4.1942142899999997</v>
+      </c>
+      <c r="AE28">
+        <v>3.0197571399999998</v>
+      </c>
+      <c r="AF28">
+        <v>8.0097000000000005</v>
+      </c>
+      <c r="AG28">
+        <v>12.01997143</v>
+      </c>
+      <c r="AH28">
+        <v>40.597285710000001</v>
+      </c>
+      <c r="AI28">
+        <v>99.374600000000001</v>
+      </c>
+      <c r="AJ28">
+        <v>47.218600000000002</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL28">
+        <v>32.484299999999998</v>
+      </c>
+      <c r="AM28">
+        <v>61.984200000000001</v>
+      </c>
+      <c r="AN28">
+        <v>59.968600000000002</v>
+      </c>
+      <c r="AO28">
+        <v>44.343600000000002</v>
+      </c>
+      <c r="AP28">
+        <v>40.281100000000002</v>
+      </c>
+      <c r="AQ28">
+        <v>55.890500000000003</v>
+      </c>
+      <c r="AR28">
+        <v>82.687200000000004</v>
+      </c>
+      <c r="AS28">
+        <v>212.06200000000001</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>7.5870428600000004</v>
+      </c>
+      <c r="C29">
+        <v>10.758342860000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>8.0409428599999995</v>
+      </c>
+      <c r="F29">
+        <v>4.0696285699999999</v>
+      </c>
+      <c r="G29">
+        <v>2.3508428600000002</v>
+      </c>
+      <c r="H29">
+        <v>4.2888857099999997</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29">
+        <v>4.3590857099999996</v>
+      </c>
+      <c r="K29">
+        <v>4.15388571</v>
+      </c>
+      <c r="L29">
+        <v>10.75958571</v>
+      </c>
+      <c r="M29">
+        <v>37.024671429999998</v>
+      </c>
+      <c r="N29">
+        <v>28.23445714</v>
+      </c>
+      <c r="O29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29">
+        <v>26.723871429999999</v>
+      </c>
+      <c r="Q29">
+        <v>10.051928569999999</v>
+      </c>
+      <c r="R29">
+        <v>5.6445857100000003</v>
+      </c>
+      <c r="S29">
+        <v>10.461085710000001</v>
+      </c>
+      <c r="T29" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29">
+        <v>18.442028570000002</v>
+      </c>
+      <c r="V29">
+        <v>9.0421714299999998</v>
+      </c>
+      <c r="W29">
+        <v>31.952228569999999</v>
+      </c>
+      <c r="X29">
+        <v>18.13187143</v>
+      </c>
+      <c r="Y29">
+        <v>5.9456571399999998</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA29">
+        <v>2.6673428600000002</v>
+      </c>
+      <c r="AB29">
+        <v>4.3456285699999997</v>
+      </c>
+      <c r="AC29">
+        <v>1.7514000000000001</v>
+      </c>
+      <c r="AD29">
+        <v>3.3010714299999999</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF29">
+        <v>5.6095714299999999</v>
+      </c>
+      <c r="AG29">
+        <v>9.5273571399999994</v>
+      </c>
+      <c r="AH29">
+        <v>28.724785709999999</v>
+      </c>
+      <c r="AI29">
+        <v>238.98439999999999</v>
+      </c>
+      <c r="AJ29">
+        <v>55.265599999999999</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL29">
+        <v>33.171900000000001</v>
+      </c>
+      <c r="AM29">
+        <v>106.7813</v>
+      </c>
+      <c r="AN29">
+        <v>74.5</v>
+      </c>
+      <c r="AO29">
+        <v>76.968800000000002</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ29">
+        <v>128.6875</v>
+      </c>
+      <c r="AR29">
+        <v>229.35939999999999</v>
+      </c>
+      <c r="AS29">
+        <v>266.96879999999999</v>
+      </c>
+      <c r="AT29">
+        <v>3</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>13.96165714</v>
+      </c>
+      <c r="C30">
+        <v>15.204514290000001</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>21.73727143</v>
+      </c>
+      <c r="F30">
+        <v>10.66787143</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30">
+        <v>11.261271430000001</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30">
+        <v>8.5534285699999995</v>
+      </c>
+      <c r="K30">
+        <v>7.8824142899999998</v>
+      </c>
+      <c r="L30">
+        <v>7.62505714</v>
+      </c>
+      <c r="M30">
+        <v>57.61624286</v>
+      </c>
+      <c r="N30">
+        <v>37.616271429999998</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30">
+        <v>55.830214290000001</v>
+      </c>
+      <c r="Q30">
+        <v>17.05208571</v>
+      </c>
+      <c r="R30" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30">
+        <v>17.178085710000001</v>
+      </c>
+      <c r="T30" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30">
+        <v>14.981485709999999</v>
+      </c>
+      <c r="V30">
+        <v>14.4465</v>
+      </c>
+      <c r="W30">
+        <v>19.20042857</v>
+      </c>
+      <c r="X30">
+        <v>33.658200000000001</v>
+      </c>
+      <c r="Y30">
+        <v>8.7900428599999998</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA30">
+        <v>7.2717428599999998</v>
+      </c>
+      <c r="AB30">
+        <v>11.17945714</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD30">
+        <v>6.4523142900000003</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF30">
+        <v>6.3254571400000001</v>
+      </c>
+      <c r="AG30">
+        <v>5.5213285699999997</v>
+      </c>
+      <c r="AH30">
+        <v>23.418299999999999</v>
+      </c>
+      <c r="AI30">
+        <v>241.0761</v>
+      </c>
+      <c r="AJ30">
+        <v>57.812100000000001</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL30">
+        <v>33.4529</v>
+      </c>
+      <c r="AM30">
+        <v>104.7961</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO30">
+        <v>57.296500000000002</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ30">
+        <v>73.952600000000004</v>
+      </c>
+      <c r="AR30">
+        <v>70.046400000000006</v>
+      </c>
+      <c r="AS30">
+        <v>307.12279999999998</v>
+      </c>
+      <c r="AT30">
+        <v>3</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>12.30904286</v>
+      </c>
+      <c r="C31">
+        <v>7.2232714299999996</v>
+      </c>
+      <c r="D31">
+        <v>8.4374571399999994</v>
+      </c>
+      <c r="E31">
+        <v>12.45231429</v>
+      </c>
+      <c r="F31">
+        <v>7.5515142900000001</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31">
+        <v>2.0715857099999999</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31">
+        <v>4.4800714299999997</v>
+      </c>
+      <c r="K31">
+        <v>5.1942428600000001</v>
+      </c>
+      <c r="L31" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31">
+        <v>50.329242860000001</v>
+      </c>
+      <c r="N31">
+        <v>29.559985709999999</v>
+      </c>
+      <c r="O31">
+        <v>24.31975714</v>
+      </c>
+      <c r="P31">
+        <v>32.001128569999999</v>
+      </c>
+      <c r="Q31">
+        <v>11.787771429999999</v>
+      </c>
+      <c r="R31" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31">
+        <v>5.1884142899999999</v>
+      </c>
+      <c r="T31" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31">
+        <v>9.1716428600000004</v>
+      </c>
+      <c r="V31">
+        <v>11.011971429999999</v>
+      </c>
+      <c r="W31" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31">
+        <v>39.36377143</v>
+      </c>
+      <c r="Y31">
+        <v>4.1138571400000004</v>
+      </c>
+      <c r="Z31">
+        <v>2.7553714299999998</v>
+      </c>
+      <c r="AA31">
+        <v>3.28234286</v>
+      </c>
+      <c r="AB31">
+        <v>7.8216857099999997</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD31">
+        <v>1.4384571399999999</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF31">
+        <v>1.47141429</v>
+      </c>
+      <c r="AG31">
+        <v>9.2286428600000008</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI31">
+        <v>319.79520000000002</v>
+      </c>
+      <c r="AJ31">
+        <v>56.9529</v>
+      </c>
+      <c r="AK31">
+        <v>32.656100000000002</v>
+      </c>
+      <c r="AL31">
+        <v>26.359300000000001</v>
+      </c>
+      <c r="AM31">
+        <v>103.57769999999999</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO31">
+        <v>69.437299999999993</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ31">
+        <v>32.843600000000002</v>
+      </c>
+      <c r="AR31">
+        <v>177.67099999999999</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT31">
+        <v>6</v>
+      </c>
+      <c r="AU31">
+        <v>1</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>12.9297</v>
+      </c>
+      <c r="C32">
+        <v>10.601699999999999</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>12.77018571</v>
+      </c>
+      <c r="F32">
+        <v>8.5496142899999992</v>
+      </c>
+      <c r="G32">
+        <v>7.2784714299999997</v>
+      </c>
+      <c r="H32">
+        <v>6.6262285700000003</v>
+      </c>
+      <c r="I32">
+        <v>5.3882142899999996</v>
+      </c>
+      <c r="J32">
+        <v>7.1345571400000001</v>
+      </c>
+      <c r="K32">
+        <v>13.01477143</v>
+      </c>
+      <c r="L32">
+        <v>15.52448571</v>
+      </c>
+      <c r="M32">
+        <v>47.87155714</v>
+      </c>
+      <c r="N32">
+        <v>39.636642860000002</v>
+      </c>
+      <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32">
+        <v>28.38304286</v>
+      </c>
+      <c r="Q32">
+        <v>15.721671430000001</v>
+      </c>
+      <c r="R32">
+        <v>14.62242857</v>
+      </c>
+      <c r="S32">
+        <v>25.472100000000001</v>
+      </c>
+      <c r="T32">
+        <v>17.36618571</v>
+      </c>
+      <c r="U32">
+        <v>26.957142860000001</v>
+      </c>
+      <c r="V32">
+        <v>27.988071430000002</v>
+      </c>
+      <c r="W32">
+        <v>55.62694286</v>
+      </c>
+      <c r="X32">
+        <v>26.584542859999999</v>
+      </c>
+      <c r="Y32">
+        <v>6.0507857100000004</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA32">
+        <v>2.84078571</v>
+      </c>
+      <c r="AB32">
+        <v>7.11274286</v>
+      </c>
+      <c r="AC32">
+        <v>2.53971429</v>
+      </c>
+      <c r="AD32">
+        <v>3.0263142900000002</v>
+      </c>
+      <c r="AE32">
+        <v>1.16138571</v>
+      </c>
+      <c r="AF32">
+        <v>5.0510142900000004</v>
+      </c>
+      <c r="AG32">
+        <v>14.134242860000001</v>
+      </c>
+      <c r="AH32">
+        <v>28.971599999999999</v>
+      </c>
+      <c r="AI32">
+        <v>209.85480000000001</v>
+      </c>
+      <c r="AJ32">
+        <v>91.974000000000004</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL32">
+        <v>22.198599999999999</v>
+      </c>
+      <c r="AM32">
+        <v>83.210899999999995</v>
+      </c>
+      <c r="AN32">
+        <v>34.886699999999998</v>
+      </c>
+      <c r="AO32">
+        <v>45.834000000000003</v>
+      </c>
+      <c r="AP32">
+        <v>21.5124</v>
+      </c>
+      <c r="AQ32">
+        <v>70.497399999999999</v>
+      </c>
+      <c r="AR32">
+        <v>109.5378</v>
+      </c>
+      <c r="AS32">
+        <v>185.31899999999999</v>
+      </c>
+      <c r="AT32">
+        <v>2</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>8.4641142899999995</v>
+      </c>
+      <c r="C33">
+        <v>15.509057139999999</v>
+      </c>
+      <c r="D33">
+        <v>10.715057140000001</v>
+      </c>
+      <c r="E33">
+        <v>1.57718571</v>
+      </c>
+      <c r="F33">
+        <v>12.137914289999999</v>
+      </c>
+      <c r="G33">
+        <v>5.9711999999999996</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33">
+        <v>1.87907143</v>
+      </c>
+      <c r="J33">
+        <v>4.1704285700000003</v>
+      </c>
+      <c r="K33">
+        <v>9.2397428599999998</v>
+      </c>
+      <c r="L33">
+        <v>13.94447143</v>
+      </c>
+      <c r="M33">
+        <v>41.361985709999999</v>
+      </c>
+      <c r="N33">
+        <v>42.821871430000002</v>
+      </c>
+      <c r="O33">
+        <v>20.881071429999999</v>
+      </c>
+      <c r="P33">
+        <v>6.3417428600000001</v>
+      </c>
+      <c r="Q33">
+        <v>23.254328569999998</v>
+      </c>
+      <c r="R33">
+        <v>12.215742860000001</v>
+      </c>
+      <c r="S33" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33">
+        <v>4.8898285699999997</v>
+      </c>
+      <c r="U33">
+        <v>10.62411429</v>
+      </c>
+      <c r="V33">
+        <v>16.116728569999999</v>
+      </c>
+      <c r="W33">
+        <v>54.874242860000003</v>
+      </c>
+      <c r="X33">
+        <v>29.441871429999999</v>
+      </c>
+      <c r="Y33">
+        <v>4.5557999999999996</v>
+      </c>
+      <c r="Z33">
+        <v>3.4254857099999998</v>
+      </c>
+      <c r="AA33">
+        <v>0.51822857</v>
+      </c>
+      <c r="AB33">
+        <v>10.65291429</v>
+      </c>
+      <c r="AC33">
+        <v>4.1425285699999996</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE33">
+        <v>0.87437142999999995</v>
+      </c>
+      <c r="AF33">
+        <v>3.9658285700000002</v>
+      </c>
+      <c r="AG33">
+        <v>5.5799142899999996</v>
+      </c>
+      <c r="AH33">
+        <v>14.883557140000001</v>
+      </c>
+      <c r="AI33">
+        <v>347.84379999999999</v>
+      </c>
+      <c r="AJ33">
+        <v>29.375</v>
+      </c>
+      <c r="AK33">
+        <v>31.968699999999998</v>
+      </c>
+      <c r="AL33">
+        <v>32.859400000000001</v>
+      </c>
+      <c r="AM33">
+        <v>87.765600000000006</v>
+      </c>
+      <c r="AN33">
+        <v>69.375</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP33">
+        <v>46.531300000000002</v>
+      </c>
+      <c r="AQ33">
+        <v>95.093699999999998</v>
+      </c>
+      <c r="AR33">
+        <v>60.390599999999999</v>
+      </c>
+      <c r="AS33">
+        <v>106.73439999999999</v>
+      </c>
+      <c r="AT33">
+        <v>7</v>
+      </c>
+      <c r="AU33">
+        <v>1</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>3</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>10.83732857</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <v>19.380728569999999</v>
+      </c>
+      <c r="F34">
+        <v>12.64632857</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>9.2597142899999998</v>
+      </c>
+      <c r="I34">
+        <v>8.7806142900000008</v>
+      </c>
+      <c r="J34">
+        <v>10.21684286</v>
+      </c>
+      <c r="K34">
+        <v>7.7075571399999996</v>
+      </c>
+      <c r="L34">
+        <v>14.44007143</v>
+      </c>
+      <c r="M34">
+        <v>105.11421429000001</v>
+      </c>
+      <c r="N34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34">
+        <v>42.440528569999998</v>
+      </c>
+      <c r="Q34">
+        <v>24.261214290000002</v>
+      </c>
+      <c r="R34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34">
+        <v>17.742814289999998</v>
+      </c>
+      <c r="T34">
+        <v>37.576457140000002</v>
+      </c>
+      <c r="U34">
+        <v>27.672000000000001</v>
+      </c>
+      <c r="V34">
+        <v>16.730271429999998</v>
+      </c>
+      <c r="W34">
+        <v>53.18494286</v>
+      </c>
+      <c r="X34">
+        <v>25.938085709999999</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA34">
+        <v>6.4070999999999998</v>
+      </c>
+      <c r="AB34">
+        <v>14.86332857</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD34">
+        <v>4.407</v>
+      </c>
+      <c r="AE34">
+        <v>2.9365714299999999</v>
+      </c>
+      <c r="AF34">
+        <v>5.7528857100000002</v>
+      </c>
+      <c r="AG34">
+        <v>18.59044286</v>
+      </c>
+      <c r="AH34">
+        <v>34.533299999999997</v>
+      </c>
+      <c r="AI34">
+        <v>290.82229999999998</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL34">
+        <v>33.053699999999999</v>
+      </c>
+      <c r="AM34">
+        <v>117.51560000000001</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO34">
+        <v>47.585900000000002</v>
+      </c>
+      <c r="AP34">
+        <v>33.565399999999997</v>
+      </c>
+      <c r="AQ34">
+        <v>56.8018</v>
+      </c>
+      <c r="AR34">
+        <v>242.76759999999999</v>
+      </c>
+      <c r="AS34">
+        <v>250.17769999999999</v>
+      </c>
+      <c r="AT34">
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>18.268457139999999</v>
+      </c>
+      <c r="C35">
+        <v>5.5307571400000004</v>
+      </c>
+      <c r="D35">
+        <v>8.5720714299999994</v>
+      </c>
+      <c r="E35">
+        <v>6.4367571400000001</v>
+      </c>
+      <c r="F35">
+        <v>18.2742</v>
+      </c>
+      <c r="G35">
+        <v>9.17927143</v>
+      </c>
+      <c r="H35">
+        <v>10.7376</v>
+      </c>
+      <c r="I35">
+        <v>6.91534286</v>
+      </c>
+      <c r="J35">
+        <v>3.7662428600000002</v>
+      </c>
+      <c r="K35">
+        <v>20.47418571</v>
+      </c>
+      <c r="L35">
+        <v>29.557885710000001</v>
+      </c>
+      <c r="M35">
+        <v>71.335371429999995</v>
+      </c>
+      <c r="N35">
+        <v>34.420671429999999</v>
+      </c>
+      <c r="O35">
+        <v>17.215371430000001</v>
+      </c>
+      <c r="P35">
+        <v>17.000571430000001</v>
+      </c>
+      <c r="Q35">
+        <v>31.516328569999999</v>
+      </c>
+      <c r="R35">
+        <v>17.0427</v>
+      </c>
+      <c r="S35">
+        <v>18.504385710000001</v>
+      </c>
+      <c r="T35">
+        <v>17.26388571</v>
+      </c>
+      <c r="U35">
+        <v>10.129928570000001</v>
+      </c>
+      <c r="V35">
+        <v>35.414271429999999</v>
+      </c>
+      <c r="W35">
+        <v>58.188385709999999</v>
+      </c>
+      <c r="X35">
+        <v>55.067914289999997</v>
+      </c>
+      <c r="Y35">
+        <v>5.9230714300000002</v>
+      </c>
+      <c r="Z35">
+        <v>2.64261429</v>
+      </c>
+      <c r="AA35">
+        <v>3.9183857099999999</v>
+      </c>
+      <c r="AB35">
+        <v>14.98195714</v>
+      </c>
+      <c r="AC35">
+        <v>8.3043428600000002</v>
+      </c>
+      <c r="AD35">
+        <v>4.6708285700000003</v>
+      </c>
+      <c r="AE35">
+        <v>4.5554571399999997</v>
+      </c>
+      <c r="AF35">
+        <v>3.2042571400000002</v>
+      </c>
+      <c r="AG35">
+        <v>13.29861429</v>
+      </c>
+      <c r="AH35">
+        <v>26.920714289999999</v>
+      </c>
+      <c r="AI35">
+        <v>301.43740000000003</v>
+      </c>
+      <c r="AJ35">
+        <v>107.0937</v>
+      </c>
+      <c r="AK35">
+        <v>30.828099999999999</v>
+      </c>
+      <c r="AL35">
+        <v>60.874899999999997</v>
+      </c>
+      <c r="AM35">
+        <v>81.984300000000005</v>
+      </c>
+      <c r="AN35">
+        <v>90.468699999999998</v>
+      </c>
+      <c r="AO35">
+        <v>43.5</v>
+      </c>
+      <c r="AP35">
+        <v>65.874899999999997</v>
+      </c>
+      <c r="AQ35">
+        <v>85.078000000000003</v>
+      </c>
+      <c r="AR35">
+        <v>64.953000000000003</v>
+      </c>
+      <c r="AS35">
+        <v>91.078000000000003</v>
+      </c>
+      <c r="AT35">
+        <v>4</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>3</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3B906D-4EE5-D34B-8CA1-9375BD14A3DD}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AO1" workbookViewId="0">
       <selection sqref="A1:AY39"/>
     </sheetView>
   </sheetViews>
@@ -12255,11 +17804,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EA3F0F-0DDF-9344-AAF0-ED9016B75A8C}">
   <dimension ref="A1:BA40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/PH_Summary.xlsx
+++ b/PH_Summary.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miraliu/Desktop/PostDocCode/Swathi_4Dflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14527A49-1D7A-3D49-AFCD-1B437C032285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D718A01E-DBE6-0E40-9652-D9DBA9014D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="500" windowWidth="30360" windowHeight="20460" activeTab="2" xr2:uid="{C905BE8C-2896-C543-8AFF-EB2ACCDFAC71}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30360" windowHeight="20460" activeTab="3" xr2:uid="{C905BE8C-2896-C543-8AFF-EB2ACCDFAC71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2-old" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2-old" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="98">
   <si>
     <t>Patient ID</t>
   </si>
@@ -340,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,6 +358,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -417,10 +436,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,8 +457,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11759,8 +11781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD23C1E9-4DD2-6E4F-ACF0-C8B3EDE6EB36}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AX36" sqref="AX36"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12059,19 +12081,19 @@
       <c r="AS2">
         <v>159.08789999999999</v>
       </c>
-      <c r="AT2" s="8">
+      <c r="AT2" s="3">
         <v>10</v>
       </c>
-      <c r="AU2" s="8">
+      <c r="AU2" s="3">
         <v>1</v>
       </c>
-      <c r="AV2" s="8">
+      <c r="AV2" s="3">
         <v>1</v>
       </c>
-      <c r="AW2" s="8">
+      <c r="AW2" s="3">
         <v>3</v>
       </c>
-      <c r="AX2" s="8">
+      <c r="AX2" s="3">
         <v>0</v>
       </c>
       <c r="AY2">
@@ -12217,19 +12239,19 @@
       <c r="AS3">
         <v>127.967</v>
       </c>
-      <c r="AT3" s="8">
+      <c r="AT3" s="3">
         <v>15</v>
       </c>
-      <c r="AU3" s="8">
+      <c r="AU3" s="3">
         <v>1</v>
       </c>
-      <c r="AV3" s="8">
+      <c r="AV3" s="3">
         <v>1</v>
       </c>
-      <c r="AW3" s="8">
+      <c r="AW3" s="3">
         <v>4</v>
       </c>
-      <c r="AX3" s="8">
+      <c r="AX3" s="3">
         <v>1</v>
       </c>
       <c r="AY3">
@@ -12375,19 +12397,19 @@
       <c r="AS4">
         <v>272.85759999999999</v>
       </c>
-      <c r="AT4" s="8">
+      <c r="AT4" s="3">
         <v>18</v>
       </c>
-      <c r="AU4" s="8">
+      <c r="AU4" s="3">
         <v>1</v>
       </c>
-      <c r="AV4" s="8">
+      <c r="AV4" s="3">
         <v>1</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AW4" s="3">
         <v>4</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="AX4" s="3">
         <v>1</v>
       </c>
       <c r="AY4">
@@ -12533,22 +12555,22 @@
       <c r="AS5">
         <v>200.3109</v>
       </c>
-      <c r="AT5" s="8">
+      <c r="AT5" s="3">
         <v>10</v>
       </c>
-      <c r="AU5" s="8">
+      <c r="AU5" s="3">
         <v>1</v>
       </c>
-      <c r="AV5" s="8">
+      <c r="AV5" s="3">
         <v>1</v>
       </c>
-      <c r="AW5" s="8">
+      <c r="AW5" s="3">
         <v>2</v>
       </c>
-      <c r="AX5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9" t="s">
+      <c r="AX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AZ5">
@@ -12691,25 +12713,25 @@
       <c r="AS6">
         <v>82.630600000000001</v>
       </c>
-      <c r="AT6" s="8">
+      <c r="AT6" s="3">
         <v>4</v>
       </c>
-      <c r="AU6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="8">
+      <c r="AU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="3">
         <v>4</v>
       </c>
-      <c r="AX6" s="8">
+      <c r="AX6" s="3">
         <v>1</v>
       </c>
-      <c r="AY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="9">
+      <c r="AY6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -12849,25 +12871,25 @@
       <c r="AS7">
         <v>275.48739999999998</v>
       </c>
-      <c r="AT7" s="8">
+      <c r="AT7" s="3">
         <v>1</v>
       </c>
-      <c r="AU7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="8">
+      <c r="AU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3">
         <v>2</v>
       </c>
-      <c r="AX7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ7" s="9">
+      <c r="AX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13007,25 +13029,25 @@
       <c r="AS8" t="s">
         <v>39</v>
       </c>
-      <c r="AT8" s="8">
+      <c r="AT8" s="3">
         <v>14</v>
       </c>
-      <c r="AU8" s="8">
+      <c r="AU8" s="3">
         <v>1</v>
       </c>
-      <c r="AV8" s="8">
+      <c r="AV8" s="3">
         <v>1</v>
       </c>
-      <c r="AW8" s="8">
+      <c r="AW8" s="3">
         <v>4</v>
       </c>
-      <c r="AX8" s="8">
+      <c r="AX8" s="3">
         <v>1</v>
       </c>
-      <c r="AY8" s="9">
+      <c r="AY8" s="4">
         <v>1</v>
       </c>
-      <c r="AZ8" s="9">
+      <c r="AZ8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -13165,25 +13187,25 @@
       <c r="AS9">
         <v>174.5812</v>
       </c>
-      <c r="AT9" s="8">
+      <c r="AT9" s="3">
         <v>3</v>
       </c>
-      <c r="AU9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="8">
+      <c r="AU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3">
         <v>2</v>
       </c>
-      <c r="AX9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="9">
+      <c r="AX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -13323,25 +13345,25 @@
       <c r="AS10">
         <v>283.87240000000003</v>
       </c>
-      <c r="AT10" s="8">
+      <c r="AT10" s="3">
         <v>4</v>
       </c>
-      <c r="AU10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="8">
+      <c r="AU10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="3">
         <v>3</v>
       </c>
-      <c r="AX10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ10" s="9">
+      <c r="AX10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13481,25 +13503,25 @@
       <c r="AS11">
         <v>168.72450000000001</v>
       </c>
-      <c r="AT11" s="8">
+      <c r="AT11" s="3">
         <v>9</v>
       </c>
-      <c r="AU11" s="8">
+      <c r="AU11" s="3">
         <v>1</v>
       </c>
-      <c r="AV11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="8">
+      <c r="AV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
         <v>1</v>
       </c>
-      <c r="AX11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="9">
+      <c r="AX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13639,25 +13661,25 @@
       <c r="AS12">
         <v>229.4753</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT12" s="3">
         <v>4</v>
       </c>
-      <c r="AU12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ12" s="9">
+      <c r="AU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -13797,25 +13819,25 @@
       <c r="AS13">
         <v>233.5668</v>
       </c>
-      <c r="AT13" s="8">
+      <c r="AT13" s="3">
         <v>1</v>
       </c>
-      <c r="AU13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="8">
+      <c r="AU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="3">
         <v>4</v>
       </c>
-      <c r="AX13" s="8">
+      <c r="AX13" s="3">
         <v>1</v>
       </c>
-      <c r="AY13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="9">
+      <c r="AY13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13955,25 +13977,25 @@
       <c r="AS14">
         <v>251.6626</v>
       </c>
-      <c r="AT14" s="8">
+      <c r="AT14" s="3">
         <v>1</v>
       </c>
-      <c r="AU14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="8">
+      <c r="AU14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="3">
         <v>2</v>
       </c>
-      <c r="AX14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="9">
+      <c r="AX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -14113,25 +14135,25 @@
       <c r="AS15">
         <v>32.828099999999999</v>
       </c>
-      <c r="AT15" s="8">
+      <c r="AT15" s="3">
         <v>7</v>
       </c>
-      <c r="AU15" s="8">
+      <c r="AU15" s="3">
         <v>1</v>
       </c>
-      <c r="AV15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="8">
+      <c r="AV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="3">
         <v>2</v>
       </c>
-      <c r="AX15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ15" s="9">
+      <c r="AX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ15" s="4">
         <v>1</v>
       </c>
     </row>
@@ -14271,25 +14293,25 @@
       <c r="AS16">
         <v>148.97649999999999</v>
       </c>
-      <c r="AT16" s="8">
+      <c r="AT16" s="3">
         <v>1</v>
       </c>
-      <c r="AU16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="8">
+      <c r="AU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="3">
         <v>1</v>
       </c>
-      <c r="AX16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="9">
+      <c r="AX16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -14429,25 +14451,25 @@
       <c r="AS17">
         <v>240.39850000000001</v>
       </c>
-      <c r="AT17" s="8">
+      <c r="AT17" s="3">
         <v>2</v>
       </c>
-      <c r="AU17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="8">
+      <c r="AU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="3">
         <v>1</v>
       </c>
-      <c r="AX17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ17" s="9">
+      <c r="AX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -14587,25 +14609,25 @@
       <c r="AS18">
         <v>405.56760000000003</v>
       </c>
-      <c r="AT18" s="8">
+      <c r="AT18" s="3">
         <v>7</v>
       </c>
-      <c r="AU18" s="8">
+      <c r="AU18" s="3">
         <v>1</v>
       </c>
-      <c r="AV18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="8">
+      <c r="AV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="3">
         <v>3</v>
       </c>
-      <c r="AX18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="9">
+      <c r="AX18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="4">
         <v>1</v>
       </c>
-      <c r="AZ18" s="9">
+      <c r="AZ18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -14745,25 +14767,25 @@
       <c r="AS19">
         <v>105.9226</v>
       </c>
-      <c r="AT19" s="8">
+      <c r="AT19" s="3">
         <v>22</v>
       </c>
-      <c r="AU19" s="8">
+      <c r="AU19" s="3">
         <v>1</v>
       </c>
-      <c r="AV19" s="8">
+      <c r="AV19" s="3">
         <v>1</v>
       </c>
-      <c r="AW19" s="8">
+      <c r="AW19" s="3">
         <v>3</v>
       </c>
-      <c r="AX19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="9">
+      <c r="AX19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="4">
         <v>1</v>
       </c>
-      <c r="AZ19" s="9">
+      <c r="AZ19" s="4">
         <v>1</v>
       </c>
     </row>
@@ -14903,19 +14925,19 @@
       <c r="AS20">
         <v>78.330100000000002</v>
       </c>
-      <c r="AT20" s="8">
+      <c r="AT20" s="3">
         <v>5</v>
       </c>
-      <c r="AU20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="8">
+      <c r="AU20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="3">
         <v>1</v>
       </c>
-      <c r="AX20" s="8">
+      <c r="AX20" s="3">
         <v>0</v>
       </c>
       <c r="AY20">
@@ -15061,19 +15083,19 @@
       <c r="AS21">
         <v>83.652299999999997</v>
       </c>
-      <c r="AT21" s="8">
+      <c r="AT21" s="3">
         <v>7</v>
       </c>
-      <c r="AU21" s="8">
+      <c r="AU21" s="3">
         <v>1</v>
       </c>
-      <c r="AV21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="8">
+      <c r="AV21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3">
         <v>4</v>
       </c>
-      <c r="AX21" s="8">
+      <c r="AX21" s="3">
         <v>1</v>
       </c>
       <c r="AY21">
@@ -15219,19 +15241,19 @@
       <c r="AS22">
         <v>163.8698</v>
       </c>
-      <c r="AT22" s="8">
+      <c r="AT22" s="3">
         <v>3</v>
       </c>
-      <c r="AU22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="8">
+      <c r="AU22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="3">
         <v>4</v>
       </c>
-      <c r="AX22" s="8">
+      <c r="AX22" s="3">
         <v>1</v>
       </c>
       <c r="AY22">
@@ -15377,22 +15399,22 @@
       <c r="AS23">
         <v>289.95650000000001</v>
       </c>
-      <c r="AT23" s="8">
+      <c r="AT23" s="3">
         <v>3</v>
       </c>
-      <c r="AU23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="9" t="s">
+      <c r="AU23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AZ23" t="s">
@@ -15535,22 +15557,22 @@
       <c r="AS24">
         <v>370.3433</v>
       </c>
-      <c r="AT24" s="8">
+      <c r="AT24" s="3">
         <v>2</v>
       </c>
-      <c r="AU24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="9" t="s">
+      <c r="AU24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AZ24">
@@ -15693,25 +15715,25 @@
       <c r="AS25" t="s">
         <v>39</v>
       </c>
-      <c r="AT25" s="8">
+      <c r="AT25" s="3">
         <v>6</v>
       </c>
-      <c r="AU25" s="8">
+      <c r="AU25" s="3">
         <v>1</v>
       </c>
-      <c r="AV25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="8">
+      <c r="AV25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="3">
         <v>4</v>
       </c>
-      <c r="AX25" s="8">
+      <c r="AX25" s="3">
         <v>1</v>
       </c>
-      <c r="AY25" s="9">
+      <c r="AY25" s="4">
         <v>1</v>
       </c>
-      <c r="AZ25" s="9">
+      <c r="AZ25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -15851,25 +15873,25 @@
       <c r="AS26">
         <v>147.20580000000001</v>
       </c>
-      <c r="AT26" s="8">
+      <c r="AT26" s="3">
         <v>3</v>
       </c>
-      <c r="AU26" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="8">
+      <c r="AU26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="3">
         <v>3</v>
       </c>
-      <c r="AX26" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="9">
+      <c r="AX26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="4">
         <v>0</v>
       </c>
     </row>
@@ -16009,25 +16031,25 @@
       <c r="AS27" t="s">
         <v>39</v>
       </c>
-      <c r="AT27" s="8">
+      <c r="AT27" s="3">
         <v>4</v>
       </c>
-      <c r="AU27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="8">
+      <c r="AU27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="3">
         <v>4</v>
       </c>
-      <c r="AX27" s="8">
+      <c r="AX27" s="3">
         <v>1</v>
       </c>
-      <c r="AY27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="9">
+      <c r="AY27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="4">
         <v>0</v>
       </c>
     </row>
@@ -16167,25 +16189,25 @@
       <c r="AS28">
         <v>212.06200000000001</v>
       </c>
-      <c r="AT28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="9">
+      <c r="AT28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="4">
         <v>1</v>
       </c>
     </row>
@@ -16325,25 +16347,25 @@
       <c r="AS29">
         <v>266.96879999999999</v>
       </c>
-      <c r="AT29" s="8">
+      <c r="AT29" s="3">
         <v>3</v>
       </c>
-      <c r="AU29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="8">
+      <c r="AU29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="3">
         <v>1</v>
       </c>
-      <c r="AX29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ29" s="9">
+      <c r="AX29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="4">
         <v>1</v>
       </c>
     </row>
@@ -16483,25 +16505,25 @@
       <c r="AS30">
         <v>307.12279999999998</v>
       </c>
-      <c r="AT30" s="8">
+      <c r="AT30" s="3">
         <v>3</v>
       </c>
-      <c r="AU30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="9">
+      <c r="AU30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="4">
         <v>1</v>
       </c>
-      <c r="AZ30" s="9">
+      <c r="AZ30" s="4">
         <v>0</v>
       </c>
     </row>
@@ -16641,25 +16663,25 @@
       <c r="AS31" t="s">
         <v>39</v>
       </c>
-      <c r="AT31" s="8">
+      <c r="AT31" s="3">
         <v>6</v>
       </c>
-      <c r="AU31" s="8">
+      <c r="AU31" s="3">
         <v>1</v>
       </c>
-      <c r="AV31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="8">
+      <c r="AV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="3">
         <v>3</v>
       </c>
-      <c r="AX31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="9">
+      <c r="AX31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -16799,25 +16821,25 @@
       <c r="AS32">
         <v>185.31899999999999</v>
       </c>
-      <c r="AT32" s="8">
+      <c r="AT32" s="3">
         <v>2</v>
       </c>
-      <c r="AU32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ32" s="9">
+      <c r="AU32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -16957,25 +16979,25 @@
       <c r="AS33">
         <v>106.73439999999999</v>
       </c>
-      <c r="AT33" s="8">
+      <c r="AT33" s="3">
         <v>7</v>
       </c>
-      <c r="AU33" s="8">
+      <c r="AU33" s="3">
         <v>1</v>
       </c>
-      <c r="AV33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="8">
+      <c r="AV33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="3">
         <v>3</v>
       </c>
-      <c r="AX33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="9">
+      <c r="AX33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -17115,25 +17137,25 @@
       <c r="AS34">
         <v>250.17769999999999</v>
       </c>
-      <c r="AT34" s="8">
+      <c r="AT34" s="3">
         <v>2</v>
       </c>
-      <c r="AU34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="8">
+      <c r="AU34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="3">
         <v>1</v>
       </c>
-      <c r="AX34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ34" s="9">
+      <c r="AX34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ34" s="4">
         <v>0</v>
       </c>
     </row>
@@ -17273,25 +17295,25 @@
       <c r="AS35">
         <v>91.078000000000003</v>
       </c>
-      <c r="AT35" s="8">
+      <c r="AT35" s="3">
         <v>4</v>
       </c>
-      <c r="AU35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="8">
+      <c r="AU35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="3">
         <v>3</v>
       </c>
-      <c r="AX35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="9">
+      <c r="AX35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="4">
         <v>0</v>
       </c>
     </row>
@@ -17301,6 +17323,5551 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4482D9DC-633B-344A-AE8A-E29EBA723046}">
+  <dimension ref="A1:AZ35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AX36" sqref="AX36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>19.174885700000001</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10">
+        <v>24.343371399999999</v>
+      </c>
+      <c r="E2" s="10">
+        <v>12.3919286</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="10">
+        <v>6.24</v>
+      </c>
+      <c r="K2" s="10">
+        <v>13.018114300000001</v>
+      </c>
+      <c r="L2" s="10">
+        <v>18.360085699999999</v>
+      </c>
+      <c r="M2" s="10">
+        <v>117.7005857</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="10">
+        <v>63.657685700000002</v>
+      </c>
+      <c r="P2" s="10">
+        <v>42.879985699999999</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="10">
+        <v>13.8291857</v>
+      </c>
+      <c r="V2" s="10">
+        <v>25.000800000000002</v>
+      </c>
+      <c r="W2" s="10">
+        <v>44.646900000000002</v>
+      </c>
+      <c r="X2" s="10">
+        <v>49.162371399999998</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>10.052871400000001</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>5.0368285699999999</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>2.3157857000000002</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>8.0060142899999995</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>29.2116857</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>276.77769999999998</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>41.173400000000001</v>
+      </c>
+      <c r="AL2" s="10">
+        <v>40.5976</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" s="10">
+        <v>37.1038</v>
+      </c>
+      <c r="AR2" s="10">
+        <v>61.609299999999998</v>
+      </c>
+      <c r="AS2" s="10">
+        <v>159.08789999999999</v>
+      </c>
+      <c r="AT2" s="10">
+        <v>10</v>
+      </c>
+      <c r="AU2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="10">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>18.9590143</v>
+      </c>
+      <c r="C3" s="10">
+        <v>21.1294714</v>
+      </c>
+      <c r="D3" s="10">
+        <v>9.7620428599999993</v>
+      </c>
+      <c r="E3" s="10">
+        <v>19.780885699999999</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="10">
+        <v>37.598914299999997</v>
+      </c>
+      <c r="M3" s="10">
+        <v>73.061785709999995</v>
+      </c>
+      <c r="N3" s="10">
+        <v>69.450557099999997</v>
+      </c>
+      <c r="O3" s="10">
+        <v>27.008571400000001</v>
+      </c>
+      <c r="P3" s="10">
+        <v>47.631771399999998</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="10">
+        <v>75.201214300000004</v>
+      </c>
+      <c r="X3" s="10">
+        <v>63.961285699999998</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>12.947100000000001</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>4.5986571400000003</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>7.9934571400000003</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>48.226542899999998</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>358.07749999999999</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>61.244900000000001</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>46.6708</v>
+      </c>
+      <c r="AL3" s="10">
+        <v>40.535699999999999</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="10">
+        <v>127.967</v>
+      </c>
+      <c r="AT3" s="10">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="10">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>17.598214299999999</v>
+      </c>
+      <c r="C4" s="10">
+        <v>12.2065714</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10">
+        <v>8.1971571399999998</v>
+      </c>
+      <c r="F4" s="10">
+        <v>9.2363571400000009</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="10">
+        <v>4.2095571400000003</v>
+      </c>
+      <c r="K4" s="10">
+        <v>5.7075428600000002</v>
+      </c>
+      <c r="L4" s="10">
+        <v>17.370342900000001</v>
+      </c>
+      <c r="M4" s="10">
+        <v>66.454499999999996</v>
+      </c>
+      <c r="N4" s="10">
+        <v>64.247571399999998</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="10">
+        <v>31.305171399999999</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>17.164157100000001</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="10">
+        <v>10.770085699999999</v>
+      </c>
+      <c r="V4" s="10">
+        <v>15.942985699999999</v>
+      </c>
+      <c r="W4" s="10">
+        <v>67.647642899999994</v>
+      </c>
+      <c r="X4" s="10">
+        <v>65.280642900000004</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>12.2522571</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>8.8541142900000001</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>15.501085700000001</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>3.3932571</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>16.524942899999999</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>47.3963143</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>370.9513</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>100.3745</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>108.0151</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>167.8272</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ4" s="10">
+        <v>80.608999999999995</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>289.52949999999998</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>272.85759999999999</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>18</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>4</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>10.776899999999999</v>
+      </c>
+      <c r="C5" s="10">
+        <v>19.274828599999999</v>
+      </c>
+      <c r="D5" s="10">
+        <v>8.8404000000000007</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10.447585699999999</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8.4443142899999994</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6.2783571</v>
+      </c>
+      <c r="H5" s="10">
+        <v>5.6162142900000003</v>
+      </c>
+      <c r="I5" s="10">
+        <v>11.130599999999999</v>
+      </c>
+      <c r="J5" s="10">
+        <v>6.0081857100000002</v>
+      </c>
+      <c r="K5" s="10">
+        <v>6.6763714299999997</v>
+      </c>
+      <c r="L5" s="10">
+        <v>19.0716</v>
+      </c>
+      <c r="M5" s="10">
+        <v>54.379928569999997</v>
+      </c>
+      <c r="N5" s="10">
+        <v>42.460114300000001</v>
+      </c>
+      <c r="O5" s="10">
+        <v>21.531385700000001</v>
+      </c>
+      <c r="P5" s="10">
+        <v>29.9468143</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>14.4593571</v>
+      </c>
+      <c r="R5" s="10">
+        <v>10.7301857</v>
+      </c>
+      <c r="S5" s="10">
+        <v>11.0151</v>
+      </c>
+      <c r="T5" s="10">
+        <v>21.678128600000001</v>
+      </c>
+      <c r="U5" s="10">
+        <v>12.6982286</v>
+      </c>
+      <c r="V5" s="10">
+        <v>16.439185699999999</v>
+      </c>
+      <c r="W5" s="10">
+        <v>42.268971399999998</v>
+      </c>
+      <c r="X5" s="10">
+        <v>43.255328599999999</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>6.1317428600000001</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>3.09685714</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>3.7970142899999999</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>9.3941999999999997</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>3.4991571000000001</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>2.5228714299999999</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>4.1711999999999998</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>5.7706286000000002</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>13.4204571</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>38.202428599999998</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>401.37279999999998</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>31.8123</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>35.030999999999999</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>36.343499999999999</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>111.2492</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>55.734000000000002</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>44.921599999999998</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>37.509099999999997</v>
+      </c>
+      <c r="AQ5" s="10">
+        <v>96.046199999999999</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>201.01410000000001</v>
+      </c>
+      <c r="AS5" s="10">
+        <v>200.3109</v>
+      </c>
+      <c r="AT5" s="10">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
+        <v>19.4802</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12.3730286</v>
+      </c>
+      <c r="D6" s="10">
+        <v>15.6238286</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.1924857100000001</v>
+      </c>
+      <c r="F6" s="10">
+        <v>9.2931857099999995</v>
+      </c>
+      <c r="G6" s="10">
+        <v>6.3353143000000003</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3.2229000000000001</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="10">
+        <v>4.4264142900000003</v>
+      </c>
+      <c r="K6" s="10">
+        <v>14.079942900000001</v>
+      </c>
+      <c r="L6" s="10">
+        <v>24.0091286</v>
+      </c>
+      <c r="M6" s="10">
+        <v>71.867699999999999</v>
+      </c>
+      <c r="N6" s="10">
+        <v>55.6569</v>
+      </c>
+      <c r="O6" s="10">
+        <v>36.9574286</v>
+      </c>
+      <c r="P6" s="10">
+        <v>20.950114299999999</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>15.0705429</v>
+      </c>
+      <c r="R6" s="10">
+        <v>11.1736714</v>
+      </c>
+      <c r="S6" s="10">
+        <v>6.96351429</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="10">
+        <v>8.8981714299999997</v>
+      </c>
+      <c r="V6" s="10">
+        <v>26.452542900000001</v>
+      </c>
+      <c r="W6" s="10">
+        <v>76.625057100000006</v>
+      </c>
+      <c r="X6" s="10">
+        <v>67.542599999999993</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>7.5671142900000001</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>8.7921428600000002</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0.87625713999999999</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>8.2082571400000006</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>5.9659285999999998</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>1.4907428599999999</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>4.1223000000000001</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>16.8904286</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>19.751314300000001</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>370.2165</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>60.919600000000003</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>56.138399999999997</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>39.877200000000002</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>88.321399999999997</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>94.399600000000007</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>45.890599999999999</v>
+      </c>
+      <c r="AP6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ6" s="10">
+        <v>93.030100000000004</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>120.3683</v>
+      </c>
+      <c r="AS6" s="10">
+        <v>82.630600000000001</v>
+      </c>
+      <c r="AT6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10">
+        <v>29.497199999999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5.4554999999999998</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10">
+        <v>26.6802429</v>
+      </c>
+      <c r="F7" s="10">
+        <v>9.5560714299999994</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="10">
+        <v>8.2710857099999995</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="10">
+        <v>9.8323285699999996</v>
+      </c>
+      <c r="K7" s="10">
+        <v>5.1766285700000001</v>
+      </c>
+      <c r="L7" s="10">
+        <v>18.252214299999999</v>
+      </c>
+      <c r="M7" s="10">
+        <v>113.262</v>
+      </c>
+      <c r="N7" s="10">
+        <v>18.106757099999999</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="10">
+        <v>54.7287429</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>18.782571399999998</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="10">
+        <v>17.252442899999998</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="10">
+        <v>25.757914299999999</v>
+      </c>
+      <c r="V7" s="10">
+        <v>11.4735</v>
+      </c>
+      <c r="W7" s="10">
+        <v>46.921799999999998</v>
+      </c>
+      <c r="X7" s="10">
+        <v>55.1049857</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>1.7823</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>4.38334286</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>17.360614300000002</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>7.4109428599999996</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>7.8722570999999997</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>12.321985700000001</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>49.880099999999999</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>207.2483</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>32.694499999999998</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>16.4695</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>182.14359999999999</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>89.367900000000006</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>80.860799999999998</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>238.4179</v>
+      </c>
+      <c r="AS7" s="10">
+        <v>275.48739999999998</v>
+      </c>
+      <c r="AT7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10">
+        <v>12.002614299999999</v>
+      </c>
+      <c r="C8" s="10">
+        <v>11.0609571</v>
+      </c>
+      <c r="D8" s="10">
+        <v>9.7220142900000006</v>
+      </c>
+      <c r="E8" s="10">
+        <v>16.860771400000001</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9.2068714299999996</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.8032857</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4.60675714</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="10">
+        <v>68.638885709999997</v>
+      </c>
+      <c r="N8" s="10">
+        <v>53.8732714</v>
+      </c>
+      <c r="O8" s="10">
+        <v>30.1405286</v>
+      </c>
+      <c r="P8" s="10">
+        <v>47.002457100000001</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>16.744371399999999</v>
+      </c>
+      <c r="R8" s="10">
+        <v>8.0124428600000002</v>
+      </c>
+      <c r="S8" s="10">
+        <v>9.6685714300000001</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="10">
+        <v>40.416728599999999</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>7.0703142899999998</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>4.1288142900000002</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>5.3032285699999999</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>9.9218142900000004</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>4.0016571000000001</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>2.28608571</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>336.73390000000001</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>63.921700000000001</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>42.468600000000002</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>31.452999999999999</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>107.76519999999999</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>142.74950000000001</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>49.624899999999997</v>
+      </c>
+      <c r="AP8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT8" s="10">
+        <v>14</v>
+      </c>
+      <c r="AU8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="10">
+        <v>4</v>
+      </c>
+      <c r="AX8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15.407614300000001</v>
+      </c>
+      <c r="C9" s="10">
+        <v>11.7801429</v>
+      </c>
+      <c r="D9" s="10">
+        <v>8.6658428599999997</v>
+      </c>
+      <c r="E9" s="10">
+        <v>9.4166571399999999</v>
+      </c>
+      <c r="F9" s="10">
+        <v>9.1824857099999999</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2.9083714000000001</v>
+      </c>
+      <c r="H9" s="10">
+        <v>7.0246714299999997</v>
+      </c>
+      <c r="I9" s="10">
+        <v>10.534714299999999</v>
+      </c>
+      <c r="J9" s="10">
+        <v>5.4243428600000003</v>
+      </c>
+      <c r="K9" s="10">
+        <v>7.1879999999999997</v>
+      </c>
+      <c r="L9" s="10">
+        <v>21.0503143</v>
+      </c>
+      <c r="M9" s="10">
+        <v>74.601685709999998</v>
+      </c>
+      <c r="N9" s="10">
+        <v>32.498100000000001</v>
+      </c>
+      <c r="O9" s="10">
+        <v>17.668628600000002</v>
+      </c>
+      <c r="P9" s="10">
+        <v>30.305657100000001</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>18.003685699999998</v>
+      </c>
+      <c r="R9" s="10">
+        <v>7.8972428600000004</v>
+      </c>
+      <c r="S9" s="10">
+        <v>14.0492571</v>
+      </c>
+      <c r="T9" s="10">
+        <v>26.679471400000001</v>
+      </c>
+      <c r="U9" s="10">
+        <v>13.6395429</v>
+      </c>
+      <c r="V9" s="10">
+        <v>13.7422714</v>
+      </c>
+      <c r="W9" s="10">
+        <v>47.0957571</v>
+      </c>
+      <c r="X9" s="10">
+        <v>34.933971399999997</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>5.6394428599999999</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>2.1237857099999999</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>3.4707428600000001</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>6.7369285699999999</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>1.3435714000000001</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>2.8961999999999999</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>4.0954286</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>4.2697713999999998</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>17.7879857</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>36.638014300000002</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>242.73439999999999</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>48.046100000000003</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>24.550799999999999</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>36.858600000000003</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>73.351600000000005</v>
+      </c>
+      <c r="AN9" s="10">
+        <v>46.143700000000003</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>41.239800000000002</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>38.801600000000001</v>
+      </c>
+      <c r="AQ9" s="10">
+        <v>78.550799999999995</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>247.4367</v>
+      </c>
+      <c r="AS9" s="10">
+        <v>174.5812</v>
+      </c>
+      <c r="AT9" s="10">
+        <v>3</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10">
+        <v>13.014214300000001</v>
+      </c>
+      <c r="C10" s="10">
+        <v>13.9962857</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5.7092142900000002</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5.8220999999999998</v>
+      </c>
+      <c r="F10" s="10">
+        <v>9.3083142900000002</v>
+      </c>
+      <c r="G10" s="10">
+        <v>6.3237429000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <v>8.4186857100000001</v>
+      </c>
+      <c r="I10" s="10">
+        <v>6.8517857099999997</v>
+      </c>
+      <c r="J10" s="10">
+        <v>11.886214300000001</v>
+      </c>
+      <c r="K10" s="10">
+        <v>10.9579714</v>
+      </c>
+      <c r="L10" s="10">
+        <v>17.279399999999999</v>
+      </c>
+      <c r="M10" s="10">
+        <v>84.060214290000005</v>
+      </c>
+      <c r="N10" s="10">
+        <v>44.946857100000003</v>
+      </c>
+      <c r="O10" s="10">
+        <v>17.537485700000001</v>
+      </c>
+      <c r="P10" s="10">
+        <v>16.793014299999999</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>16.111028600000001</v>
+      </c>
+      <c r="R10" s="10">
+        <v>14.617028599999999</v>
+      </c>
+      <c r="S10" s="10">
+        <v>13.044</v>
+      </c>
+      <c r="T10" s="10">
+        <v>23.052514299999999</v>
+      </c>
+      <c r="U10" s="10">
+        <v>36.268885699999998</v>
+      </c>
+      <c r="V10" s="10">
+        <v>25.059042900000001</v>
+      </c>
+      <c r="W10" s="10">
+        <v>45.939300000000003</v>
+      </c>
+      <c r="X10" s="10">
+        <v>61.140042899999997</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>7.0411714300000003</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>3.1556571400000002</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>2.6665714299999999</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>12.4311857</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>4.4904428999999997</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>5.1419571399999997</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>2.5092428999999998</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>9.7435714000000004</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>23.8993286</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>49.119685699999998</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>514.49019999999996</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>50.4193</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>55.442700000000002</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>46.276000000000003</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>133.5651</v>
+      </c>
+      <c r="AN10" s="10">
+        <v>71.085300000000004</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>61.059899999999999</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>36.653599999999997</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>82.456400000000002</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>218.19470000000001</v>
+      </c>
+      <c r="AS10" s="10">
+        <v>283.87240000000003</v>
+      </c>
+      <c r="AT10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AU10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AX10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10">
+        <v>13.723928600000001</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9.3628714300000002</v>
+      </c>
+      <c r="D11" s="10">
+        <v>7.3976571399999997</v>
+      </c>
+      <c r="E11" s="10">
+        <v>8.8772571399999993</v>
+      </c>
+      <c r="F11" s="10">
+        <v>13.0485857</v>
+      </c>
+      <c r="G11" s="10">
+        <v>7.8700713999999996</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4.7082857100000002</v>
+      </c>
+      <c r="I11" s="10">
+        <v>4.8206571399999998</v>
+      </c>
+      <c r="J11" s="10">
+        <v>4.3898571400000002</v>
+      </c>
+      <c r="K11" s="10">
+        <v>11.5817143</v>
+      </c>
+      <c r="L11" s="10">
+        <v>25.009714299999999</v>
+      </c>
+      <c r="M11" s="10">
+        <v>48.089142860000003</v>
+      </c>
+      <c r="N11" s="10">
+        <v>30.303899999999999</v>
+      </c>
+      <c r="O11" s="10">
+        <v>21.679028599999999</v>
+      </c>
+      <c r="P11" s="10">
+        <v>24.6585</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>23.128628599999999</v>
+      </c>
+      <c r="R11" s="10">
+        <v>15.6581571</v>
+      </c>
+      <c r="S11" s="10">
+        <v>9.4880999999999993</v>
+      </c>
+      <c r="T11" s="10">
+        <v>12.900514299999999</v>
+      </c>
+      <c r="U11" s="10">
+        <v>11.552871400000001</v>
+      </c>
+      <c r="V11" s="10">
+        <v>23.964600000000001</v>
+      </c>
+      <c r="W11" s="10">
+        <v>59.072228600000003</v>
+      </c>
+      <c r="X11" s="10">
+        <v>43.733142899999997</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>4.0080428599999998</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>3.3336428599999999</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>3.3090000000000002</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>7.9012714300000004</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>3.4835571000000001</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>2.3647714299999998</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>2.3685857000000001</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>1.8188143000000001</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>14.190085699999999</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>42.038614299999999</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>326.84320000000002</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>42.988100000000003</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>44.668599999999998</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>37.264699999999998</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>60.588099999999997</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>44.188099999999999</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>50.269399999999997</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>49.209200000000003</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>41.6389</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>122.80889999999999</v>
+      </c>
+      <c r="AS11" s="10">
+        <v>168.72450000000001</v>
+      </c>
+      <c r="AT11" s="10">
+        <v>9</v>
+      </c>
+      <c r="AU11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11.8788</v>
+      </c>
+      <c r="C12" s="10">
+        <v>18.024942899999999</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10">
+        <v>13.1363571</v>
+      </c>
+      <c r="F12" s="10">
+        <v>12.890828600000001</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5.9256856999999998</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7.46524286</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="10">
+        <v>6.7895142899999996</v>
+      </c>
+      <c r="K12" s="10">
+        <v>15.591814299999999</v>
+      </c>
+      <c r="L12" s="10">
+        <v>11.9183571</v>
+      </c>
+      <c r="M12" s="10">
+        <v>59.223771429999999</v>
+      </c>
+      <c r="N12" s="10">
+        <v>37.633157099999998</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="10">
+        <v>26.479371400000002</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>22.769614300000001</v>
+      </c>
+      <c r="R12" s="10">
+        <v>10.9430143</v>
+      </c>
+      <c r="S12" s="10">
+        <v>13.117928600000001</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="10">
+        <v>19.169871400000002</v>
+      </c>
+      <c r="V12" s="10">
+        <v>31.7146714</v>
+      </c>
+      <c r="W12" s="10">
+        <v>54.142928599999998</v>
+      </c>
+      <c r="X12" s="10">
+        <v>25.750414299999999</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>6.1824857099999999</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>3.6420428600000001</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>7.1021999999999998</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>3.3411</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>2.8502571400000001</v>
+      </c>
+      <c r="AE12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>4.9681714000000001</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>8.0592000000000006</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>27.5062286</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>217.60429999999999</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>34.282400000000003</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>27.766100000000002</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>55.146700000000003</v>
+      </c>
+      <c r="AN12" s="10">
+        <v>56.221600000000002</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>38.131300000000003</v>
+      </c>
+      <c r="AP12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>72.975999999999999</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>51.668900000000001</v>
+      </c>
+      <c r="AS12" s="10">
+        <v>229.4753</v>
+      </c>
+      <c r="AT12" s="10">
+        <v>4</v>
+      </c>
+      <c r="AU12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10">
+        <v>17.659371400000001</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5.5652142900000001</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10">
+        <v>7.3635857099999997</v>
+      </c>
+      <c r="F13" s="10">
+        <v>9.1399714299999992</v>
+      </c>
+      <c r="G13" s="10">
+        <v>8.7339000000000002</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4.5704571400000003</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="10">
+        <v>4.1627142900000003</v>
+      </c>
+      <c r="K13" s="10">
+        <v>10.227</v>
+      </c>
+      <c r="L13" s="10">
+        <v>16.186199999999999</v>
+      </c>
+      <c r="M13" s="10">
+        <v>68.429914289999999</v>
+      </c>
+      <c r="N13" s="10">
+        <v>29.060014299999999</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="10">
+        <v>14.1446571</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>17.6947714</v>
+      </c>
+      <c r="R13" s="10">
+        <v>33.628928600000002</v>
+      </c>
+      <c r="S13" s="10">
+        <v>10.1873571</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="10">
+        <v>9.8486999999999991</v>
+      </c>
+      <c r="V13" s="10">
+        <v>20.7023571</v>
+      </c>
+      <c r="W13" s="10">
+        <v>63.762771399999998</v>
+      </c>
+      <c r="X13" s="10">
+        <v>51.403328600000002</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>4.3681285699999997</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>2.5131428599999999</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>6.3708428599999998</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>3.7506428999999999</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>2.57271429</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>5.3665285999999996</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>16.988057099999999</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>37.879285699999997</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>318.87520000000001</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>177.80590000000001</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL13" s="10">
+        <v>34.226999999999997</v>
+      </c>
+      <c r="AM13" s="10">
+        <v>69.6691</v>
+      </c>
+      <c r="AN13" s="10">
+        <v>43.518099999999997</v>
+      </c>
+      <c r="AO13" s="10">
+        <v>56.411499999999997</v>
+      </c>
+      <c r="AP13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>128.99600000000001</v>
+      </c>
+      <c r="AR13" s="10">
+        <v>167.7329</v>
+      </c>
+      <c r="AS13" s="10">
+        <v>233.5668</v>
+      </c>
+      <c r="AT13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="10">
+        <v>4</v>
+      </c>
+      <c r="AX13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10">
+        <v>14.834657099999999</v>
+      </c>
+      <c r="C14" s="10">
+        <v>10.9344857</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10">
+        <v>18.831900000000001</v>
+      </c>
+      <c r="F14" s="10">
+        <v>8.4428999999999998</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="10">
+        <v>7.0590428599999999</v>
+      </c>
+      <c r="I14" s="10">
+        <v>9.2019428600000008</v>
+      </c>
+      <c r="J14" s="10">
+        <v>6.0309428599999997</v>
+      </c>
+      <c r="K14" s="10">
+        <v>13.8998571</v>
+      </c>
+      <c r="L14" s="10">
+        <v>21.017700000000001</v>
+      </c>
+      <c r="M14" s="10">
+        <v>75.311614289999994</v>
+      </c>
+      <c r="N14" s="10">
+        <v>55.439785700000002</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="10">
+        <v>37.499314300000002</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>18.697542899999998</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="10">
+        <v>14.887585700000001</v>
+      </c>
+      <c r="T14" s="10">
+        <v>36.523200000000003</v>
+      </c>
+      <c r="U14" s="10">
+        <v>15.0252</v>
+      </c>
+      <c r="V14" s="10">
+        <v>27.339728600000001</v>
+      </c>
+      <c r="W14" s="10">
+        <v>95.154214300000007</v>
+      </c>
+      <c r="X14" s="10">
+        <v>49.069628600000001</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>12.421928599999999</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>6.8404285700000003</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>10.020771399999999</v>
+      </c>
+      <c r="AC14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>3.4042714300000001</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>5.9531999999999998</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>5.6668285999999997</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>28.222028600000002</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>52.691699999999997</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>349.84190000000001</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>281.93110000000001</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>36.246499999999997</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>118.7504</v>
+      </c>
+      <c r="AN14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO14" s="10">
+        <v>48.272399999999998</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>56.8583</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>93.978499999999997</v>
+      </c>
+      <c r="AR14" s="10">
+        <v>203.0778</v>
+      </c>
+      <c r="AS14" s="10">
+        <v>251.6626</v>
+      </c>
+      <c r="AT14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="10">
+        <v>10.9415143</v>
+      </c>
+      <c r="C15" s="10">
+        <v>17.6039143</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4.47111429</v>
+      </c>
+      <c r="E15" s="10">
+        <v>7.7266285699999999</v>
+      </c>
+      <c r="F15" s="10">
+        <v>8.7464142900000006</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4.1707285699999996</v>
+      </c>
+      <c r="I15" s="10">
+        <v>4.4036142900000002</v>
+      </c>
+      <c r="J15" s="10">
+        <v>16.123928599999999</v>
+      </c>
+      <c r="K15" s="10">
+        <v>4.3657285699999999</v>
+      </c>
+      <c r="L15" s="10">
+        <v>27.180814300000002</v>
+      </c>
+      <c r="M15" s="10">
+        <v>46.602642860000003</v>
+      </c>
+      <c r="N15" s="10">
+        <v>54.516342899999998</v>
+      </c>
+      <c r="O15" s="10">
+        <v>10.709528600000001</v>
+      </c>
+      <c r="P15" s="10">
+        <v>17.1005571</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>15.1540286</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="10">
+        <v>8.1550285700000007</v>
+      </c>
+      <c r="T15" s="10">
+        <v>8.1113142899999993</v>
+      </c>
+      <c r="U15" s="10">
+        <v>27.819257100000002</v>
+      </c>
+      <c r="V15" s="10">
+        <v>11.8986857</v>
+      </c>
+      <c r="W15" s="10">
+        <v>38.549357100000002</v>
+      </c>
+      <c r="X15" s="10">
+        <v>28.9890857</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>7.9752428599999998</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>2.4876428599999998</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>3.31868571</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>11.2719857</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>2.3643428599999998</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>0.54402859999999997</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>4.7520429000000002</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>5.5370999999999997</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>8.9101714300000001</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>276.63869999999997</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>45.164099999999998</v>
+      </c>
+      <c r="AK15" s="10">
+        <v>55.735399999999998</v>
+      </c>
+      <c r="AL15" s="10">
+        <v>42.962899999999998</v>
+      </c>
+      <c r="AM15" s="10">
+        <v>128.93260000000001</v>
+      </c>
+      <c r="AN15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO15" s="10">
+        <v>56.705100000000002</v>
+      </c>
+      <c r="AP15" s="10">
+        <v>12.366199999999999</v>
+      </c>
+      <c r="AQ15" s="10">
+        <v>29.474599999999999</v>
+      </c>
+      <c r="AR15" s="10">
+        <v>126.9395</v>
+      </c>
+      <c r="AS15" s="10">
+        <v>32.828099999999999</v>
+      </c>
+      <c r="AT15" s="10">
+        <v>7</v>
+      </c>
+      <c r="AU15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10">
+        <v>16.899814299999999</v>
+      </c>
+      <c r="C16" s="10">
+        <v>11.532857099999999</v>
+      </c>
+      <c r="D16" s="10">
+        <v>5.7044571399999997</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.2677571399999996</v>
+      </c>
+      <c r="F16" s="10">
+        <v>8.9754428599999994</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5.6620714000000003</v>
+      </c>
+      <c r="H16" s="10">
+        <v>3.23382857</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2.9508000000000001</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.4488000000000003</v>
+      </c>
+      <c r="K16" s="10">
+        <v>10.0700571</v>
+      </c>
+      <c r="L16" s="10">
+        <v>27.002614300000001</v>
+      </c>
+      <c r="M16" s="10">
+        <v>103.55395710000001</v>
+      </c>
+      <c r="N16" s="10">
+        <v>57.6526286</v>
+      </c>
+      <c r="O16" s="10">
+        <v>15.2962714</v>
+      </c>
+      <c r="P16" s="10">
+        <v>13.610185700000001</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>18.604285699999998</v>
+      </c>
+      <c r="R16" s="10">
+        <v>20.567871400000001</v>
+      </c>
+      <c r="S16" s="10">
+        <v>6.75252857</v>
+      </c>
+      <c r="T16" s="10">
+        <v>12.909042899999999</v>
+      </c>
+      <c r="U16" s="10">
+        <v>27.182400000000001</v>
+      </c>
+      <c r="V16" s="10">
+        <v>22.305685700000002</v>
+      </c>
+      <c r="W16" s="10">
+        <v>59.1689571</v>
+      </c>
+      <c r="X16" s="10">
+        <v>37.325228600000003</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>2.9589857099999999</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>2.05654286</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>1.72997143</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>4.7882571399999998</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>1.8274714000000001</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>1.6607571400000001</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>1.8184286000000001</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>4.0058142999999999</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>19.648671400000001</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>39.997671400000002</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>252.0659</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>25.875699999999998</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>35.995699999999999</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>40.492199999999997</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>53.430999999999997</v>
+      </c>
+      <c r="AN16" s="10">
+        <v>33.316699999999997</v>
+      </c>
+      <c r="AO16" s="10">
+        <v>51.357199999999999</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>61.484299999999998</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>61.8401</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>195.33439999999999</v>
+      </c>
+      <c r="AS16" s="10">
+        <v>148.97649999999999</v>
+      </c>
+      <c r="AT16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10">
+        <v>19.970400000000001</v>
+      </c>
+      <c r="C17" s="10">
+        <v>23.561185699999999</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10">
+        <v>36.788871399999998</v>
+      </c>
+      <c r="F17" s="10">
+        <v>14.1660857</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="10">
+        <v>9.6483000000000008</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="10">
+        <v>10.879542900000001</v>
+      </c>
+      <c r="K17" s="10">
+        <v>5.9436</v>
+      </c>
+      <c r="L17" s="10">
+        <v>21.222899999999999</v>
+      </c>
+      <c r="M17" s="10">
+        <v>88.185985709999997</v>
+      </c>
+      <c r="N17" s="10">
+        <v>54.087385699999999</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="10">
+        <v>61.300457100000003</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>27.407828599999998</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="10">
+        <v>19.106999999999999</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="10">
+        <v>31.8156857</v>
+      </c>
+      <c r="V17" s="10">
+        <v>16.556100000000001</v>
+      </c>
+      <c r="W17" s="10">
+        <v>59.4513429</v>
+      </c>
+      <c r="X17" s="10">
+        <v>54.697414299999998</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>9.5849142900000004</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>5.45361429</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>16.3370143</v>
+      </c>
+      <c r="AC17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>6.40705714</v>
+      </c>
+      <c r="AE17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>8.5968429000000004</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>14.7277714</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>50.872585700000002</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>300.0077</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>40.709899999999998</v>
+      </c>
+      <c r="AK17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL17" s="10">
+        <v>14.87</v>
+      </c>
+      <c r="AM17" s="10">
+        <v>115.32429999999999</v>
+      </c>
+      <c r="AN17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO17" s="10">
+        <v>66.628</v>
+      </c>
+      <c r="AP17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ17" s="10">
+        <v>79.144999999999996</v>
+      </c>
+      <c r="AR17" s="10">
+        <v>247.78049999999999</v>
+      </c>
+      <c r="AS17" s="10">
+        <v>240.39850000000001</v>
+      </c>
+      <c r="AT17" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="10">
+        <v>12.6300857</v>
+      </c>
+      <c r="C18" s="10">
+        <v>25.058528599999999</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7.74977143</v>
+      </c>
+      <c r="E18" s="10">
+        <v>20.118257100000001</v>
+      </c>
+      <c r="F18" s="10">
+        <v>10.348585699999999</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="10">
+        <v>7.9257</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="10">
+        <v>8.3981142900000005</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="10">
+        <v>11.3662714</v>
+      </c>
+      <c r="M18" s="10">
+        <v>50.734157140000001</v>
+      </c>
+      <c r="N18" s="10">
+        <v>55.624371400000001</v>
+      </c>
+      <c r="O18" s="10">
+        <v>26.4864429</v>
+      </c>
+      <c r="P18" s="10">
+        <v>40.1445857</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>18.3459</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="10">
+        <v>16.2759429</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="10">
+        <v>18.952071400000001</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="10">
+        <v>33.866914299999998</v>
+      </c>
+      <c r="X18" s="10">
+        <v>27.098314299999998</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>12.582942900000001</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>5.3778857100000002</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>7.1049428600000004</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>12.5979429</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>5.6340857099999999</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>4.9489713999999996</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>46.088828599999999</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>224.27760000000001</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>50.2864</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>68.994699999999995</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>35.337600000000002</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>121.7577</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>71.1648</v>
+      </c>
+      <c r="AP18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>59.325400000000002</v>
+      </c>
+      <c r="AR18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>405.56760000000003</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>7</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="10">
+        <v>3</v>
+      </c>
+      <c r="AX18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="10">
+        <v>16.8627</v>
+      </c>
+      <c r="C19" s="10">
+        <v>21.2773714</v>
+      </c>
+      <c r="D19" s="10">
+        <v>17.869457100000002</v>
+      </c>
+      <c r="E19" s="10">
+        <v>9.3153000000000006</v>
+      </c>
+      <c r="F19" s="10">
+        <v>10.725342899999999</v>
+      </c>
+      <c r="G19" s="10">
+        <v>6.3805285999999999</v>
+      </c>
+      <c r="H19" s="10">
+        <v>6.4850571400000003</v>
+      </c>
+      <c r="I19" s="10">
+        <v>14.3439429</v>
+      </c>
+      <c r="J19" s="10">
+        <v>4.4058857099999997</v>
+      </c>
+      <c r="K19" s="10">
+        <v>18.671099999999999</v>
+      </c>
+      <c r="L19" s="10">
+        <v>25.521942899999999</v>
+      </c>
+      <c r="M19" s="10">
+        <v>66.3429</v>
+      </c>
+      <c r="N19" s="10">
+        <v>77.284285699999998</v>
+      </c>
+      <c r="O19" s="10">
+        <v>49.046528600000002</v>
+      </c>
+      <c r="P19" s="10">
+        <v>19.229357100000001</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>19.187657099999999</v>
+      </c>
+      <c r="R19" s="10">
+        <v>10.7417143</v>
+      </c>
+      <c r="S19" s="10">
+        <v>12.6225</v>
+      </c>
+      <c r="T19" s="10">
+        <v>21.668057099999999</v>
+      </c>
+      <c r="U19" s="10">
+        <v>11.823</v>
+      </c>
+      <c r="V19" s="10">
+        <v>30.493542900000001</v>
+      </c>
+      <c r="W19" s="10">
+        <v>76.724871399999998</v>
+      </c>
+      <c r="X19" s="10">
+        <v>64.850657100000006</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>11.7287143</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>9.8375142899999997</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>2.4592714299999998</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>17.893757099999998</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>3.9503143000000001</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>3.4659</v>
+      </c>
+      <c r="AE19" s="10">
+        <v>2.9197286</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>2.0731714000000001</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>16.5518143</v>
+      </c>
+      <c r="AH19" s="10">
+        <v>27.101057099999998</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>409.2201</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>56.995600000000003</v>
+      </c>
+      <c r="AK19" s="10">
+        <v>54.540999999999997</v>
+      </c>
+      <c r="AL19" s="10">
+        <v>26.3123</v>
+      </c>
+      <c r="AM19" s="10">
+        <v>166.8049</v>
+      </c>
+      <c r="AN19" s="10">
+        <v>61.984699999999997</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>53.434699999999999</v>
+      </c>
+      <c r="AP19" s="10">
+        <v>20.338100000000001</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>47.058999999999997</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>88.554000000000002</v>
+      </c>
+      <c r="AS19" s="10">
+        <v>105.9226</v>
+      </c>
+      <c r="AT19" s="10">
+        <v>22</v>
+      </c>
+      <c r="AU19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="10">
+        <v>3</v>
+      </c>
+      <c r="AX19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10">
+        <v>17.478642900000001</v>
+      </c>
+      <c r="C20" s="10">
+        <v>5.9061000000000003</v>
+      </c>
+      <c r="D20" s="10">
+        <v>5.0379857100000001</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="10">
+        <v>17.983028600000001</v>
+      </c>
+      <c r="L20" s="10">
+        <v>16.9664143</v>
+      </c>
+      <c r="M20" s="10">
+        <v>60.244114289999999</v>
+      </c>
+      <c r="N20" s="10">
+        <v>56.029328599999999</v>
+      </c>
+      <c r="O20" s="10">
+        <v>12.4184143</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="10">
+        <v>33.500571399999998</v>
+      </c>
+      <c r="W20" s="10">
+        <v>30.2501143</v>
+      </c>
+      <c r="X20" s="10">
+        <v>29.125800000000002</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>1.95158571</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>1.34704286</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG20" s="10">
+        <v>8.7044571400000006</v>
+      </c>
+      <c r="AH20" s="10">
+        <v>13.2220286</v>
+      </c>
+      <c r="AI20" s="10">
+        <v>174.2441</v>
+      </c>
+      <c r="AJ20" s="10">
+        <v>32.391599999999997</v>
+      </c>
+      <c r="AK20" s="10">
+        <v>26.857399999999998</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR20" s="10">
+        <v>48.400399999999998</v>
+      </c>
+      <c r="AS20" s="10">
+        <v>78.330100000000002</v>
+      </c>
+      <c r="AT20" s="10">
+        <v>5</v>
+      </c>
+      <c r="AU20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="10">
+        <v>27.727971400000001</v>
+      </c>
+      <c r="C21" s="10">
+        <v>15.884742900000001</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="10">
+        <v>10.2590143</v>
+      </c>
+      <c r="F21" s="10">
+        <v>8.4940285699999993</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="10">
+        <v>8.0932285700000008</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="10">
+        <v>2.9157428599999999</v>
+      </c>
+      <c r="K21" s="10">
+        <v>9.9736285700000007</v>
+      </c>
+      <c r="L21" s="10">
+        <v>41.907857100000001</v>
+      </c>
+      <c r="M21" s="10">
+        <v>94.760614290000007</v>
+      </c>
+      <c r="N21" s="10">
+        <v>46.7742857</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="10">
+        <v>26.935842900000001</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>15.5948571</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="10">
+        <v>17.240014299999999</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="10">
+        <v>6.1855714300000004</v>
+      </c>
+      <c r="V21" s="10">
+        <v>22.128685699999998</v>
+      </c>
+      <c r="W21" s="10">
+        <v>94.955185700000001</v>
+      </c>
+      <c r="X21" s="10">
+        <v>87.518271400000003</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>6.5279571399999998</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>2.48802857</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>7.02278571</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>5.4652285699999998</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>17.4466286</v>
+      </c>
+      <c r="AH21" s="10">
+        <v>35.003185700000003</v>
+      </c>
+      <c r="AI21" s="10">
+        <v>314.67189999999999</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>41.091799999999999</v>
+      </c>
+      <c r="AK21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL21" s="10">
+        <v>24.2178</v>
+      </c>
+      <c r="AM21" s="10">
+        <v>82.681600000000003</v>
+      </c>
+      <c r="AN21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO21" s="10">
+        <v>67.543899999999994</v>
+      </c>
+      <c r="AP21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ21" s="10">
+        <v>28.316400000000002</v>
+      </c>
+      <c r="AR21" s="10">
+        <v>174.8535</v>
+      </c>
+      <c r="AS21" s="10">
+        <v>83.652299999999997</v>
+      </c>
+      <c r="AT21" s="10">
+        <v>7</v>
+      </c>
+      <c r="AU21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="10">
+        <v>4</v>
+      </c>
+      <c r="AX21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="10">
+        <v>9.4047428600000007</v>
+      </c>
+      <c r="C22" s="10">
+        <v>24.037714300000001</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8.0441142899999996</v>
+      </c>
+      <c r="E22" s="10">
+        <v>6.0848571400000004</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="10">
+        <v>6.3968571399999998</v>
+      </c>
+      <c r="L22" s="10">
+        <v>12.9339429</v>
+      </c>
+      <c r="M22" s="10">
+        <v>41.785028570000001</v>
+      </c>
+      <c r="N22" s="10">
+        <v>61.657457100000002</v>
+      </c>
+      <c r="O22" s="10">
+        <v>17.004042900000002</v>
+      </c>
+      <c r="P22" s="10">
+        <v>17.093185699999999</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="10">
+        <v>13.5695143</v>
+      </c>
+      <c r="W22" s="10">
+        <v>56.159142899999999</v>
+      </c>
+      <c r="X22" s="10">
+        <v>29.7578143</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>10.882328599999999</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>5.7572999999999999</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>2.5276714299999998</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG22" s="10">
+        <v>9.9226714299999994</v>
+      </c>
+      <c r="AH22" s="10">
+        <v>21.191271400000002</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>349.8082</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>46.178800000000003</v>
+      </c>
+      <c r="AK22" s="10">
+        <v>71.468699999999998</v>
+      </c>
+      <c r="AL22" s="10">
+        <v>41.473100000000002</v>
+      </c>
+      <c r="AM22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>154.96350000000001</v>
+      </c>
+      <c r="AS22" s="10">
+        <v>163.8698</v>
+      </c>
+      <c r="AT22" s="10">
+        <v>3</v>
+      </c>
+      <c r="AU22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="10">
+        <v>4</v>
+      </c>
+      <c r="AX22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10">
+        <v>21.4921714</v>
+      </c>
+      <c r="C23" s="10">
+        <v>22.0152857</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="10">
+        <v>26.8290857</v>
+      </c>
+      <c r="F23" s="10">
+        <v>13.955357100000001</v>
+      </c>
+      <c r="G23" s="10">
+        <v>6.6934285999999998</v>
+      </c>
+      <c r="H23" s="10">
+        <v>11.715985699999999</v>
+      </c>
+      <c r="I23" s="10">
+        <v>8.3881285699999992</v>
+      </c>
+      <c r="J23" s="10">
+        <v>6.9834428600000003</v>
+      </c>
+      <c r="K23" s="10">
+        <v>17.6235429</v>
+      </c>
+      <c r="L23" s="10">
+        <v>12.279299999999999</v>
+      </c>
+      <c r="M23" s="10">
+        <v>81.280799999999999</v>
+      </c>
+      <c r="N23" s="10">
+        <v>58.476685699999997</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="10">
+        <v>59.588142900000001</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>23.529471399999998</v>
+      </c>
+      <c r="R23" s="10">
+        <v>10.2063857</v>
+      </c>
+      <c r="S23" s="10">
+        <v>24.563228599999999</v>
+      </c>
+      <c r="T23" s="10">
+        <v>16.370571399999999</v>
+      </c>
+      <c r="U23" s="10">
+        <v>20.6800286</v>
+      </c>
+      <c r="V23" s="10">
+        <v>29.8661143</v>
+      </c>
+      <c r="W23" s="10">
+        <v>57.226328600000002</v>
+      </c>
+      <c r="X23" s="10">
+        <v>47.436428599999999</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>12.0981857</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>11.659585699999999</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>8.2370999999999999</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>3.1328999999999998</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>11.5489286</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>3.2690570999999999</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>7.3825285999999997</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>24.631671399999998</v>
+      </c>
+      <c r="AH23" s="10">
+        <v>35.611285700000003</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>246.43879999999999</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>55.258299999999998</v>
+      </c>
+      <c r="AK23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL23" s="10">
+        <v>43.536999999999999</v>
+      </c>
+      <c r="AM23" s="10">
+        <v>59.0291</v>
+      </c>
+      <c r="AN23" s="10">
+        <v>46.822600000000001</v>
+      </c>
+      <c r="AO23" s="10">
+        <v>98.486199999999997</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>38.972799999999999</v>
+      </c>
+      <c r="AQ23" s="10">
+        <v>105.744</v>
+      </c>
+      <c r="AR23" s="10">
+        <v>139.87469999999999</v>
+      </c>
+      <c r="AS23" s="10">
+        <v>289.95650000000001</v>
+      </c>
+      <c r="AT23" s="10">
+        <v>3</v>
+      </c>
+      <c r="AU23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ23" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="10">
+        <v>18.496842900000001</v>
+      </c>
+      <c r="C24" s="10">
+        <v>18.448585699999999</v>
+      </c>
+      <c r="D24" s="10">
+        <v>12.973671400000001</v>
+      </c>
+      <c r="E24" s="10">
+        <v>10.828242899999999</v>
+      </c>
+      <c r="F24" s="10">
+        <v>11.070385699999999</v>
+      </c>
+      <c r="G24" s="10">
+        <v>7.2793713999999996</v>
+      </c>
+      <c r="H24" s="10">
+        <v>7.9317857099999998</v>
+      </c>
+      <c r="I24" s="10">
+        <v>10.1188714</v>
+      </c>
+      <c r="J24" s="10">
+        <v>4.4820857099999998</v>
+      </c>
+      <c r="K24" s="10">
+        <v>8.2182428600000001</v>
+      </c>
+      <c r="L24" s="10">
+        <v>11.122157100000001</v>
+      </c>
+      <c r="M24" s="10">
+        <v>99.027342860000005</v>
+      </c>
+      <c r="N24" s="10">
+        <v>45.260399999999997</v>
+      </c>
+      <c r="O24" s="10">
+        <v>35.290457099999998</v>
+      </c>
+      <c r="P24" s="10">
+        <v>28.889485700000002</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>19.238314299999999</v>
+      </c>
+      <c r="R24" s="10">
+        <v>13.8500143</v>
+      </c>
+      <c r="S24" s="10">
+        <v>18.601671400000001</v>
+      </c>
+      <c r="T24" s="10">
+        <v>34.577057099999998</v>
+      </c>
+      <c r="U24" s="10">
+        <v>12.2895</v>
+      </c>
+      <c r="V24" s="10">
+        <v>19.730014300000001</v>
+      </c>
+      <c r="W24" s="10">
+        <v>30.139842900000001</v>
+      </c>
+      <c r="X24" s="10">
+        <v>51.8429571</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>8.9359714300000004</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>4.43738571</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>4.0622571399999998</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>13.1719714</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>5.3435142999999998</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>4.3698857100000001</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>2.4190285999999999</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>1.5750428999999999</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>33.955328600000001</v>
+      </c>
+      <c r="AH24" s="10">
+        <v>41.190042900000002</v>
+      </c>
+      <c r="AI24" s="10">
+        <v>280.2808</v>
+      </c>
+      <c r="AJ24" s="10">
+        <v>48.437399999999997</v>
+      </c>
+      <c r="AK24" s="10">
+        <v>34.203099999999999</v>
+      </c>
+      <c r="AL24" s="10">
+        <v>37.515500000000003</v>
+      </c>
+      <c r="AM24" s="10">
+        <v>118.98399999999999</v>
+      </c>
+      <c r="AN24" s="10">
+        <v>73.406099999999995</v>
+      </c>
+      <c r="AO24" s="10">
+        <v>55.093600000000002</v>
+      </c>
+      <c r="AP24" s="10">
+        <v>23.8431</v>
+      </c>
+      <c r="AQ24" s="10">
+        <v>35.140500000000003</v>
+      </c>
+      <c r="AR24" s="10">
+        <v>413.17140000000001</v>
+      </c>
+      <c r="AS24" s="10">
+        <v>370.3433</v>
+      </c>
+      <c r="AT24" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="10">
+        <v>10.010442899999999</v>
+      </c>
+      <c r="C25" s="10">
+        <v>16.7576143</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="10">
+        <v>14.427300000000001</v>
+      </c>
+      <c r="F25" s="10">
+        <v>9.4925142900000008</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="10">
+        <v>4.7138142900000002</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="10">
+        <v>52.529314290000002</v>
+      </c>
+      <c r="N25" s="10">
+        <v>48.800871399999998</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="10">
+        <v>38.286557100000003</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>14.3711143</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="10">
+        <v>9.9200142899999992</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" s="10">
+        <v>35.8890429</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>10.3085571</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>6.3006857099999998</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>7.6681714300000001</v>
+      </c>
+      <c r="AC25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>3.1494428600000002</v>
+      </c>
+      <c r="AE25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI25" s="10">
+        <v>358.51560000000001</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>61.515599999999999</v>
+      </c>
+      <c r="AK25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL25" s="10">
+        <v>43.671900000000001</v>
+      </c>
+      <c r="AM25" s="10">
+        <v>80.781300000000002</v>
+      </c>
+      <c r="AN25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO25" s="10">
+        <v>66.8125</v>
+      </c>
+      <c r="AP25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT25" s="10">
+        <v>6</v>
+      </c>
+      <c r="AU25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="10">
+        <v>4</v>
+      </c>
+      <c r="AX25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="10">
+        <v>9.5967000000000002</v>
+      </c>
+      <c r="C26" s="10">
+        <v>17.6831143</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="10">
+        <v>19.558071399999999</v>
+      </c>
+      <c r="F26" s="10">
+        <v>15.2891143</v>
+      </c>
+      <c r="G26" s="10">
+        <v>9.0188571</v>
+      </c>
+      <c r="H26" s="10">
+        <v>15.537128600000001</v>
+      </c>
+      <c r="I26" s="10">
+        <v>11.9123143</v>
+      </c>
+      <c r="J26" s="10">
+        <v>7.0900714300000001</v>
+      </c>
+      <c r="K26" s="10">
+        <v>11.4794143</v>
+      </c>
+      <c r="L26" s="10">
+        <v>11.7417429</v>
+      </c>
+      <c r="M26" s="10">
+        <v>43.138028570000003</v>
+      </c>
+      <c r="N26" s="10">
+        <v>46.580742899999997</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="10">
+        <v>48.848528600000002</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>25.231542900000001</v>
+      </c>
+      <c r="R26" s="10">
+        <v>14.4065143</v>
+      </c>
+      <c r="S26" s="10">
+        <v>23.915528599999998</v>
+      </c>
+      <c r="T26" s="10">
+        <v>21.474728599999999</v>
+      </c>
+      <c r="U26" s="10">
+        <v>14.748557099999999</v>
+      </c>
+      <c r="V26" s="10">
+        <v>25.997828599999998</v>
+      </c>
+      <c r="W26" s="10">
+        <v>36.024642900000003</v>
+      </c>
+      <c r="X26" s="10">
+        <v>23.739985699999998</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>6.8240999999999996</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>5.6713714299999998</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>12.406628599999999</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>3.9145713999999998</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>6.5334428600000001</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>2.6017714000000001</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>1.9202570999999999</v>
+      </c>
+      <c r="AG26" s="10">
+        <v>8.6943428600000008</v>
+      </c>
+      <c r="AH26" s="10">
+        <v>17.198485699999999</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>253.58869999999999</v>
+      </c>
+      <c r="AJ26" s="10">
+        <v>39.464500000000001</v>
+      </c>
+      <c r="AK26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL26" s="10">
+        <v>28.8992</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>81.107699999999994</v>
+      </c>
+      <c r="AN26" s="10">
+        <v>43.395200000000003</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>42.051400000000001</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>21.8309</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>27.093599999999999</v>
+      </c>
+      <c r="AR26" s="10">
+        <v>75.771900000000002</v>
+      </c>
+      <c r="AS26" s="10">
+        <v>147.20580000000001</v>
+      </c>
+      <c r="AT26" s="10">
+        <v>3</v>
+      </c>
+      <c r="AU26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="10">
+        <v>3</v>
+      </c>
+      <c r="AX26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="10">
+        <v>21.5837571</v>
+      </c>
+      <c r="C27" s="10">
+        <v>15.123085700000001</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="10">
+        <v>21.073757100000002</v>
+      </c>
+      <c r="F27" s="10">
+        <v>14.511685699999999</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="10">
+        <v>9.2738571400000005</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="10">
+        <v>6.8917714300000004</v>
+      </c>
+      <c r="K27" s="10">
+        <v>13.1942571</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="10">
+        <v>99.292714290000006</v>
+      </c>
+      <c r="N27" s="10">
+        <v>37.648585699999998</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="10">
+        <v>36.791400000000003</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>23.516185700000001</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="10">
+        <v>16.077342900000001</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="10">
+        <v>16.620342900000001</v>
+      </c>
+      <c r="V27" s="10">
+        <v>22.2594429</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" s="10">
+        <v>74.824885699999996</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>11.280900000000001</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>5.9302714300000003</v>
+      </c>
+      <c r="AB27" s="10">
+        <v>16.835828599999999</v>
+      </c>
+      <c r="AC27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD27" s="10">
+        <v>7.0220571400000003</v>
+      </c>
+      <c r="AE27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>3.2822143000000001</v>
+      </c>
+      <c r="AG27" s="10">
+        <v>17.443242900000001</v>
+      </c>
+      <c r="AH27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI27" s="10">
+        <v>346.67189999999999</v>
+      </c>
+      <c r="AJ27" s="10">
+        <v>74.593699999999998</v>
+      </c>
+      <c r="AK27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL27" s="10">
+        <v>28.140599999999999</v>
+      </c>
+      <c r="AM27" s="10">
+        <v>116.01560000000001</v>
+      </c>
+      <c r="AN27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO27" s="10">
+        <v>75.718699999999998</v>
+      </c>
+      <c r="AP27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ27" s="10">
+        <v>47.625</v>
+      </c>
+      <c r="AR27" s="10">
+        <v>132.20310000000001</v>
+      </c>
+      <c r="AS27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT27" s="10">
+        <v>4</v>
+      </c>
+      <c r="AU27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="10">
+        <v>4</v>
+      </c>
+      <c r="AX27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="10">
+        <v>12.6260143</v>
+      </c>
+      <c r="C28" s="10">
+        <v>5.8596428600000001</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="10">
+        <v>11.4005571</v>
+      </c>
+      <c r="F28" s="10">
+        <v>18.3265286</v>
+      </c>
+      <c r="G28" s="10">
+        <v>8.2053857000000008</v>
+      </c>
+      <c r="H28" s="10">
+        <v>9.4584857099999997</v>
+      </c>
+      <c r="I28" s="10">
+        <v>7.4967428600000003</v>
+      </c>
+      <c r="J28" s="10">
+        <v>14.3310429</v>
+      </c>
+      <c r="K28" s="10">
+        <v>14.536671399999999</v>
+      </c>
+      <c r="L28" s="10">
+        <v>19.144071400000001</v>
+      </c>
+      <c r="M28" s="10">
+        <v>88.067099999999996</v>
+      </c>
+      <c r="N28" s="10">
+        <v>14.795871399999999</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="10">
+        <v>26.037557100000001</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>35.632800000000003</v>
+      </c>
+      <c r="R28" s="10">
+        <v>16.5028714</v>
+      </c>
+      <c r="S28" s="10">
+        <v>20.6432571</v>
+      </c>
+      <c r="T28" s="10">
+        <v>20.060400000000001</v>
+      </c>
+      <c r="U28" s="10">
+        <v>38.265942899999999</v>
+      </c>
+      <c r="V28" s="10">
+        <v>32.805857099999997</v>
+      </c>
+      <c r="W28" s="10">
+        <v>44.891014300000002</v>
+      </c>
+      <c r="X28" s="10">
+        <v>12.547028600000001</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>2.7668571399999999</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>3.7033714299999998</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>11.359542899999999</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>4.9206428999999998</v>
+      </c>
+      <c r="AD28" s="10">
+        <v>4.1942142899999997</v>
+      </c>
+      <c r="AE28" s="10">
+        <v>3.0197571000000001</v>
+      </c>
+      <c r="AF28" s="10">
+        <v>8.0097000000000005</v>
+      </c>
+      <c r="AG28" s="10">
+        <v>12.019971399999999</v>
+      </c>
+      <c r="AH28" s="10">
+        <v>40.5972857</v>
+      </c>
+      <c r="AI28" s="10">
+        <v>99.374600000000001</v>
+      </c>
+      <c r="AJ28" s="10">
+        <v>47.218600000000002</v>
+      </c>
+      <c r="AK28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>32.484299999999998</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>61.984200000000001</v>
+      </c>
+      <c r="AN28" s="10">
+        <v>59.968600000000002</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>44.343600000000002</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>40.281100000000002</v>
+      </c>
+      <c r="AQ28" s="10">
+        <v>55.890500000000003</v>
+      </c>
+      <c r="AR28" s="10">
+        <v>82.687200000000004</v>
+      </c>
+      <c r="AS28" s="10">
+        <v>212.06200000000001</v>
+      </c>
+      <c r="AT28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10">
+        <v>7.5870428600000004</v>
+      </c>
+      <c r="C29" s="10">
+        <v>10.758342900000001</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="10">
+        <v>8.0409428599999995</v>
+      </c>
+      <c r="F29" s="10">
+        <v>4.0696285699999999</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2.3508429</v>
+      </c>
+      <c r="H29" s="10">
+        <v>4.2888857099999997</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="10">
+        <v>4.3590857099999996</v>
+      </c>
+      <c r="K29" s="10">
+        <v>4.15388571</v>
+      </c>
+      <c r="L29" s="10">
+        <v>10.759585700000001</v>
+      </c>
+      <c r="M29" s="10">
+        <v>37.024671429999998</v>
+      </c>
+      <c r="N29" s="10">
+        <v>28.2344571</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="10">
+        <v>26.7238714</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>10.0519286</v>
+      </c>
+      <c r="R29" s="10">
+        <v>5.6445857100000003</v>
+      </c>
+      <c r="S29" s="10">
+        <v>10.4610857</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" s="10">
+        <v>18.4420286</v>
+      </c>
+      <c r="V29" s="10">
+        <v>9.0421714299999998</v>
+      </c>
+      <c r="W29" s="10">
+        <v>31.952228600000002</v>
+      </c>
+      <c r="X29" s="10">
+        <v>18.131871400000001</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>5.9456571399999998</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>2.6673428600000002</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>4.3456285699999997</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>1.7514000000000001</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>3.3010714299999999</v>
+      </c>
+      <c r="AE29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF29" s="10">
+        <v>5.6095714000000001</v>
+      </c>
+      <c r="AG29" s="10">
+        <v>9.5273571399999994</v>
+      </c>
+      <c r="AH29" s="10">
+        <v>28.724785700000002</v>
+      </c>
+      <c r="AI29" s="10">
+        <v>238.98439999999999</v>
+      </c>
+      <c r="AJ29" s="10">
+        <v>55.265599999999999</v>
+      </c>
+      <c r="AK29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL29" s="10">
+        <v>33.171900000000001</v>
+      </c>
+      <c r="AM29" s="10">
+        <v>106.7813</v>
+      </c>
+      <c r="AN29" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="AO29" s="10">
+        <v>76.968800000000002</v>
+      </c>
+      <c r="AP29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ29" s="10">
+        <v>128.6875</v>
+      </c>
+      <c r="AR29" s="10">
+        <v>229.35939999999999</v>
+      </c>
+      <c r="AS29" s="10">
+        <v>266.96879999999999</v>
+      </c>
+      <c r="AT29" s="10">
+        <v>3</v>
+      </c>
+      <c r="AU29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="10">
+        <v>13.9616571</v>
+      </c>
+      <c r="C30" s="10">
+        <v>15.2045143</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="10">
+        <v>21.737271400000001</v>
+      </c>
+      <c r="F30" s="10">
+        <v>10.667871399999999</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="10">
+        <v>11.2612714</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="10">
+        <v>8.5534285699999995</v>
+      </c>
+      <c r="K30" s="10">
+        <v>7.8824142899999998</v>
+      </c>
+      <c r="L30" s="10">
+        <v>7.62505714</v>
+      </c>
+      <c r="M30" s="10">
+        <v>57.61624286</v>
+      </c>
+      <c r="N30" s="10">
+        <v>37.616271400000002</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="10">
+        <v>55.830214300000002</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>17.052085699999999</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="10">
+        <v>17.1780857</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30" s="10">
+        <v>14.9814857</v>
+      </c>
+      <c r="V30" s="10">
+        <v>14.4465</v>
+      </c>
+      <c r="W30" s="10">
+        <v>19.200428599999999</v>
+      </c>
+      <c r="X30" s="10">
+        <v>33.658200000000001</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>8.7900428599999998</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>7.2717428599999998</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>11.1794571</v>
+      </c>
+      <c r="AC30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>6.4523142900000003</v>
+      </c>
+      <c r="AE30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>6.3254571000000004</v>
+      </c>
+      <c r="AG30" s="10">
+        <v>5.5213285699999997</v>
+      </c>
+      <c r="AH30" s="10">
+        <v>23.418299999999999</v>
+      </c>
+      <c r="AI30" s="10">
+        <v>241.0761</v>
+      </c>
+      <c r="AJ30" s="10">
+        <v>57.812100000000001</v>
+      </c>
+      <c r="AK30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL30" s="10">
+        <v>33.4529</v>
+      </c>
+      <c r="AM30" s="10">
+        <v>104.7961</v>
+      </c>
+      <c r="AN30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO30" s="10">
+        <v>57.296500000000002</v>
+      </c>
+      <c r="AP30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ30" s="10">
+        <v>73.952600000000004</v>
+      </c>
+      <c r="AR30" s="10">
+        <v>70.046400000000006</v>
+      </c>
+      <c r="AS30" s="10">
+        <v>307.12279999999998</v>
+      </c>
+      <c r="AT30" s="10">
+        <v>3</v>
+      </c>
+      <c r="AU30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="10">
+        <v>12.3090429</v>
+      </c>
+      <c r="C31" s="10">
+        <v>7.2232714299999996</v>
+      </c>
+      <c r="D31" s="10">
+        <v>8.4374571399999994</v>
+      </c>
+      <c r="E31" s="10">
+        <v>12.452314299999999</v>
+      </c>
+      <c r="F31" s="10">
+        <v>7.5515142900000001</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="10">
+        <v>2.0715857099999999</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="10">
+        <v>4.4800714299999997</v>
+      </c>
+      <c r="K31" s="10">
+        <v>5.1942428600000001</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="10">
+        <v>50.329242860000001</v>
+      </c>
+      <c r="N31" s="10">
+        <v>29.559985699999999</v>
+      </c>
+      <c r="O31" s="10">
+        <v>24.3197571</v>
+      </c>
+      <c r="P31" s="10">
+        <v>32.001128600000001</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>11.7877714</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="10">
+        <v>5.1884142899999999</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" s="10">
+        <v>9.1716428600000004</v>
+      </c>
+      <c r="V31" s="10">
+        <v>11.0119714</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" s="10">
+        <v>39.363771399999997</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>4.1138571400000004</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>2.7553714299999998</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>3.28234286</v>
+      </c>
+      <c r="AB31" s="10">
+        <v>7.8216857099999997</v>
+      </c>
+      <c r="AC31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD31" s="10">
+        <v>1.4384571399999999</v>
+      </c>
+      <c r="AE31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF31" s="10">
+        <v>1.4714143</v>
+      </c>
+      <c r="AG31" s="10">
+        <v>9.2286428600000008</v>
+      </c>
+      <c r="AH31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI31" s="10">
+        <v>319.79520000000002</v>
+      </c>
+      <c r="AJ31" s="10">
+        <v>56.9529</v>
+      </c>
+      <c r="AK31" s="10">
+        <v>32.656100000000002</v>
+      </c>
+      <c r="AL31" s="10">
+        <v>26.359300000000001</v>
+      </c>
+      <c r="AM31" s="10">
+        <v>103.57769999999999</v>
+      </c>
+      <c r="AN31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO31" s="10">
+        <v>69.437299999999993</v>
+      </c>
+      <c r="AP31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ31" s="10">
+        <v>32.843600000000002</v>
+      </c>
+      <c r="AR31" s="10">
+        <v>177.67099999999999</v>
+      </c>
+      <c r="AS31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT31" s="10">
+        <v>6</v>
+      </c>
+      <c r="AU31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="10">
+        <v>3</v>
+      </c>
+      <c r="AX31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="10">
+        <v>12.9297</v>
+      </c>
+      <c r="C32" s="10">
+        <v>10.601699999999999</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="10">
+        <v>12.770185700000001</v>
+      </c>
+      <c r="F32" s="10">
+        <v>8.5496142899999992</v>
+      </c>
+      <c r="G32" s="10">
+        <v>7.2784713999999999</v>
+      </c>
+      <c r="H32" s="10">
+        <v>6.6262285700000003</v>
+      </c>
+      <c r="I32" s="10">
+        <v>5.3882142899999996</v>
+      </c>
+      <c r="J32" s="10">
+        <v>7.1345571400000001</v>
+      </c>
+      <c r="K32" s="10">
+        <v>13.014771400000001</v>
+      </c>
+      <c r="L32" s="10">
+        <v>15.5244857</v>
+      </c>
+      <c r="M32" s="10">
+        <v>47.87155714</v>
+      </c>
+      <c r="N32" s="10">
+        <v>39.636642899999998</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="10">
+        <v>28.3830429</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>15.7216714</v>
+      </c>
+      <c r="R32" s="10">
+        <v>14.622428599999999</v>
+      </c>
+      <c r="S32" s="10">
+        <v>25.472100000000001</v>
+      </c>
+      <c r="T32" s="10">
+        <v>17.366185699999999</v>
+      </c>
+      <c r="U32" s="10">
+        <v>26.957142900000001</v>
+      </c>
+      <c r="V32" s="10">
+        <v>27.988071399999999</v>
+      </c>
+      <c r="W32" s="10">
+        <v>55.626942900000003</v>
+      </c>
+      <c r="X32" s="10">
+        <v>26.584542899999999</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>6.0507857100000004</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>2.84078571</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>7.11274286</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>2.5397143</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>3.0263142900000002</v>
+      </c>
+      <c r="AE32" s="10">
+        <v>1.1613857000000001</v>
+      </c>
+      <c r="AF32" s="10">
+        <v>5.0510143000000003</v>
+      </c>
+      <c r="AG32" s="10">
+        <v>14.1342429</v>
+      </c>
+      <c r="AH32" s="10">
+        <v>28.971599999999999</v>
+      </c>
+      <c r="AI32" s="10">
+        <v>209.85480000000001</v>
+      </c>
+      <c r="AJ32" s="10">
+        <v>91.974000000000004</v>
+      </c>
+      <c r="AK32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>22.198599999999999</v>
+      </c>
+      <c r="AM32" s="10">
+        <v>83.210899999999995</v>
+      </c>
+      <c r="AN32" s="10">
+        <v>34.886699999999998</v>
+      </c>
+      <c r="AO32" s="10">
+        <v>45.834000000000003</v>
+      </c>
+      <c r="AP32" s="10">
+        <v>21.5124</v>
+      </c>
+      <c r="AQ32" s="10">
+        <v>70.497399999999999</v>
+      </c>
+      <c r="AR32" s="10">
+        <v>109.5378</v>
+      </c>
+      <c r="AS32" s="10">
+        <v>185.31899999999999</v>
+      </c>
+      <c r="AT32" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="10">
+        <v>8.4641142899999995</v>
+      </c>
+      <c r="C33" s="10">
+        <v>15.5090571</v>
+      </c>
+      <c r="D33" s="10">
+        <v>10.715057099999999</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1.57718571</v>
+      </c>
+      <c r="F33" s="10">
+        <v>12.1379143</v>
+      </c>
+      <c r="G33" s="10">
+        <v>5.9711999999999996</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1.87907143</v>
+      </c>
+      <c r="J33" s="10">
+        <v>4.1704285700000003</v>
+      </c>
+      <c r="K33" s="10">
+        <v>9.2397428599999998</v>
+      </c>
+      <c r="L33" s="10">
+        <v>13.944471399999999</v>
+      </c>
+      <c r="M33" s="10">
+        <v>41.361985709999999</v>
+      </c>
+      <c r="N33" s="10">
+        <v>42.821871399999999</v>
+      </c>
+      <c r="O33" s="10">
+        <v>20.8810714</v>
+      </c>
+      <c r="P33" s="10">
+        <v>6.3417428600000001</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>23.254328600000001</v>
+      </c>
+      <c r="R33" s="10">
+        <v>12.2157429</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" s="10">
+        <v>4.8898285699999997</v>
+      </c>
+      <c r="U33" s="10">
+        <v>10.6241143</v>
+      </c>
+      <c r="V33" s="10">
+        <v>16.116728599999998</v>
+      </c>
+      <c r="W33" s="10">
+        <v>54.874242899999999</v>
+      </c>
+      <c r="X33" s="10">
+        <v>29.4418714</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>4.5557999999999996</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>3.4254857099999998</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>0.51822857</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>10.652914300000001</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>4.1425286000000003</v>
+      </c>
+      <c r="AD33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE33" s="10">
+        <v>0.87437140000000002</v>
+      </c>
+      <c r="AF33" s="10">
+        <v>3.9658286</v>
+      </c>
+      <c r="AG33" s="10">
+        <v>5.5799142899999996</v>
+      </c>
+      <c r="AH33" s="10">
+        <v>14.883557100000001</v>
+      </c>
+      <c r="AI33" s="10">
+        <v>347.84379999999999</v>
+      </c>
+      <c r="AJ33" s="10">
+        <v>29.375</v>
+      </c>
+      <c r="AK33" s="10">
+        <v>31.968699999999998</v>
+      </c>
+      <c r="AL33" s="10">
+        <v>32.859400000000001</v>
+      </c>
+      <c r="AM33" s="10">
+        <v>87.765600000000006</v>
+      </c>
+      <c r="AN33" s="10">
+        <v>69.375</v>
+      </c>
+      <c r="AO33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP33" s="10">
+        <v>46.531300000000002</v>
+      </c>
+      <c r="AQ33" s="10">
+        <v>95.093699999999998</v>
+      </c>
+      <c r="AR33" s="10">
+        <v>60.390599999999999</v>
+      </c>
+      <c r="AS33" s="10">
+        <v>106.73439999999999</v>
+      </c>
+      <c r="AT33" s="10">
+        <v>7</v>
+      </c>
+      <c r="AU33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="10">
+        <v>3</v>
+      </c>
+      <c r="AX33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="10">
+        <v>10.837328599999999</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="10">
+        <v>19.380728600000001</v>
+      </c>
+      <c r="F34" s="10">
+        <v>12.6463286</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="10">
+        <v>9.2597142899999998</v>
+      </c>
+      <c r="I34" s="10">
+        <v>8.7806142900000008</v>
+      </c>
+      <c r="J34" s="10">
+        <v>10.2168429</v>
+      </c>
+      <c r="K34" s="10">
+        <v>7.7075571399999996</v>
+      </c>
+      <c r="L34" s="10">
+        <v>14.440071400000001</v>
+      </c>
+      <c r="M34" s="10">
+        <v>105.1142143</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="10">
+        <v>42.4405286</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>24.261214299999999</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="10">
+        <v>17.742814299999999</v>
+      </c>
+      <c r="T34" s="10">
+        <v>37.576457099999999</v>
+      </c>
+      <c r="U34" s="10">
+        <v>27.672000000000001</v>
+      </c>
+      <c r="V34" s="10">
+        <v>16.730271399999999</v>
+      </c>
+      <c r="W34" s="10">
+        <v>53.184942900000003</v>
+      </c>
+      <c r="X34" s="10">
+        <v>25.938085699999998</v>
+      </c>
+      <c r="Y34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>6.4070999999999998</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>14.863328599999999</v>
+      </c>
+      <c r="AC34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD34" s="10">
+        <v>4.407</v>
+      </c>
+      <c r="AE34" s="10">
+        <v>2.9365714000000001</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>5.7528857000000002</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>18.590442899999999</v>
+      </c>
+      <c r="AH34" s="10">
+        <v>34.533299999999997</v>
+      </c>
+      <c r="AI34" s="10">
+        <v>290.82229999999998</v>
+      </c>
+      <c r="AJ34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>33.053699999999999</v>
+      </c>
+      <c r="AM34" s="10">
+        <v>117.51560000000001</v>
+      </c>
+      <c r="AN34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO34" s="10">
+        <v>47.585900000000002</v>
+      </c>
+      <c r="AP34" s="10">
+        <v>33.565399999999997</v>
+      </c>
+      <c r="AQ34" s="10">
+        <v>56.8018</v>
+      </c>
+      <c r="AR34" s="10">
+        <v>242.76759999999999</v>
+      </c>
+      <c r="AS34" s="10">
+        <v>250.17769999999999</v>
+      </c>
+      <c r="AT34" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="10">
+        <v>18.268457099999999</v>
+      </c>
+      <c r="C35" s="10">
+        <v>5.5307571400000004</v>
+      </c>
+      <c r="D35" s="10">
+        <v>8.5720714299999994</v>
+      </c>
+      <c r="E35" s="10">
+        <v>6.4367571400000001</v>
+      </c>
+      <c r="F35" s="10">
+        <v>18.2742</v>
+      </c>
+      <c r="G35" s="10">
+        <v>9.1792713999999993</v>
+      </c>
+      <c r="H35" s="10">
+        <v>10.7376</v>
+      </c>
+      <c r="I35" s="10">
+        <v>6.91534286</v>
+      </c>
+      <c r="J35" s="10">
+        <v>3.7662428600000002</v>
+      </c>
+      <c r="K35" s="10">
+        <v>20.4741857</v>
+      </c>
+      <c r="L35" s="10">
+        <v>29.5578857</v>
+      </c>
+      <c r="M35" s="10">
+        <v>71.335371429999995</v>
+      </c>
+      <c r="N35" s="10">
+        <v>34.420671400000003</v>
+      </c>
+      <c r="O35" s="10">
+        <v>17.215371399999999</v>
+      </c>
+      <c r="P35" s="10">
+        <v>17.000571399999998</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>31.516328600000001</v>
+      </c>
+      <c r="R35" s="10">
+        <v>17.0427</v>
+      </c>
+      <c r="S35" s="10">
+        <v>18.5043857</v>
+      </c>
+      <c r="T35" s="10">
+        <v>17.263885699999999</v>
+      </c>
+      <c r="U35" s="10">
+        <v>10.1299286</v>
+      </c>
+      <c r="V35" s="10">
+        <v>35.414271399999997</v>
+      </c>
+      <c r="W35" s="10">
+        <v>58.188385699999998</v>
+      </c>
+      <c r="X35" s="10">
+        <v>55.067914299999998</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>5.9230714300000002</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>2.64261429</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>3.9183857099999999</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>14.981957100000001</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>8.3043429</v>
+      </c>
+      <c r="AD35" s="10">
+        <v>4.6708285700000003</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>4.5554570999999999</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>3.2042571</v>
+      </c>
+      <c r="AG35" s="10">
+        <v>13.298614300000001</v>
+      </c>
+      <c r="AH35" s="10">
+        <v>26.9207143</v>
+      </c>
+      <c r="AI35" s="10">
+        <v>301.43740000000003</v>
+      </c>
+      <c r="AJ35" s="10">
+        <v>107.0937</v>
+      </c>
+      <c r="AK35" s="10">
+        <v>30.828099999999999</v>
+      </c>
+      <c r="AL35" s="10">
+        <v>60.874899999999997</v>
+      </c>
+      <c r="AM35" s="10">
+        <v>81.984300000000005</v>
+      </c>
+      <c r="AN35" s="10">
+        <v>90.468699999999998</v>
+      </c>
+      <c r="AO35" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="AP35" s="10">
+        <v>65.874899999999997</v>
+      </c>
+      <c r="AQ35" s="10">
+        <v>85.078000000000003</v>
+      </c>
+      <c r="AR35" s="10">
+        <v>64.953000000000003</v>
+      </c>
+      <c r="AS35" s="10">
+        <v>91.078000000000003</v>
+      </c>
+      <c r="AT35" s="10">
+        <v>4</v>
+      </c>
+      <c r="AU35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="10">
+        <v>3</v>
+      </c>
+      <c r="AX35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3B906D-4EE5-D34B-8CA1-9375BD14A3DD}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
@@ -23360,7 +28927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EA3F0F-0DDF-9344-AAF0-ED9016B75A8C}">
   <dimension ref="A1:BA40"/>
   <sheetViews>
@@ -23377,66 +28944,66 @@
       <c r="A1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="5" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="6" t="s">
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="7" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
